--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P07_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P07_trail14 Features.xlsx
@@ -7296,7 +7296,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7308,28 +7308,26 @@
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7350,115 +7348,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -7475,72 +7463,66 @@
         <v>2.444225130366431e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.6433649611509286</v>
+        <v>9.933607418116535e-08</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.7801009066976796</v>
+        <v>1.56612598590768e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>9.933607418116535e-08</v>
+        <v>-0.05547547621043077</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.56612598590768e-06</v>
+        <v>0.1195300116661897</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.05547547621043077</v>
+        <v>0.01731350935021625</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1195300116661897</v>
+        <v>1.930933482249098</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.01731350935021625</v>
+        <v>2.547796826083316</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.951131185197905</v>
+        <v>3.784955078090091</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.547796826083316</v>
+        <v>6.163918972737731e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.784955078090091</v>
+        <v>1984441741.188324</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>6.163918972737731e-17</v>
+        <v>6.069914785201172e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1984441741.188324</v>
+        <v>242.7356853889724</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>6.069914785201172e-08</v>
+        <v>0.0002023334406198153</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>242.7356853889724</v>
+        <v>13.17103649321775</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0002023334406198153</v>
+        <v>1.057686316236572</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>13.17103649321775</v>
+        <v>0.03510003687816608</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.057686316236572</v>
+        <v>3.239176681305123</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.03510003687816608</v>
+        <v>0.9603708422723854</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.239176681305123</v>
+        <v>1.09857093743317</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9603708422723854</v>
+        <v>86</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.09857093743317</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>86</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>2.256954981905719</v>
       </c>
     </row>
@@ -7555,72 +7537,66 @@
         <v>2.303325043901241e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.5727957454054126</v>
+        <v>8.231995520617831e-08</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.044027016010837</v>
+        <v>1.564982424412735e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>8.231995520617831e-08</v>
+        <v>-0.04128624030744485</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.564982424412735e-06</v>
+        <v>0.1011244879195006</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.04128624030744485</v>
+        <v>0.0119019818535677</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1011244879195006</v>
+        <v>1.935800681763443</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.0119019818535677</v>
+        <v>2.577809797449958</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.959616409125369</v>
+        <v>3.747537499836312</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.577809797449958</v>
+        <v>6.287621717059827e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.747537499836312</v>
+        <v>1968796688.995231</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>6.287621717059827e-17</v>
+        <v>6.123891351495556e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>1968796688.995231</v>
+        <v>243.7183032618623</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>6.123891351495556e-08</v>
+        <v>0.0001947249175998856</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>243.7183032618623</v>
+        <v>13.05419058560771</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001947249175998856</v>
+        <v>1.054985266935416</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>13.05419058560771</v>
+        <v>0.03318344159763011</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.054985266935416</v>
+        <v>3.322001505979393</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.03318344159763011</v>
+        <v>0.9601732458848031</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.322001505979393</v>
+        <v>1.033996872300638</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9601732458848031</v>
+        <v>81</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.033996872300638</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>2.414654843752057</v>
       </c>
     </row>
@@ -7635,72 +7611,66 @@
         <v>2.207704438541226e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.5558542794885605</v>
+        <v>7.238726017457464e-08</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.078543545958722</v>
+        <v>1.564191289149376e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.238726017457464e-08</v>
+        <v>-0.02932610930189527</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.564191289149376e-06</v>
+        <v>0.1046162899825962</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.02932610930189527</v>
+        <v>0.01178912097997774</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1046162899825962</v>
+        <v>1.922190811821447</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01178912097997774</v>
+        <v>2.286308194216834</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.944907810371835</v>
+        <v>3.912626043075976</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.286308194216834</v>
+        <v>5.768218422824731e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.912626043075976</v>
+        <v>2131424132.084295</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>5.768218422824731e-17</v>
+        <v>5.636310115950016e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>2131424132.084295</v>
+        <v>262.0483650431959</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>5.636310115950016e-08</v>
+        <v>0.0001779729101351635</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>262.0483650431959</v>
+        <v>11.50722275343881</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001779729101351635</v>
+        <v>1.179519374554379</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>11.50722275343881</v>
+        <v>0.02356649210221586</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.179519374554379</v>
+        <v>3.461223819616543</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02356649210221586</v>
+        <v>0.9608250058955538</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.461223819616543</v>
+        <v>1.115686975431611</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9608250058955538</v>
+        <v>82</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.115686975431611</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>2.186633783018374</v>
       </c>
     </row>
@@ -7715,72 +7685,66 @@
         <v>2.137208446738866e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.5414500254730131</v>
+        <v>6.80918348654367e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.072097608923459</v>
+        <v>1.563654171575719e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6.80918348654367e-08</v>
+        <v>-0.02061707332018599</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.563654171575719e-06</v>
+        <v>0.117618379448701</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.02061707332018599</v>
+        <v>0.01425027914918496</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.117618379448701</v>
+        <v>1.913685094282263</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01425027914918496</v>
+        <v>2.303446155444621</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.931042290938715</v>
+        <v>4.719187712820077</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.303446155444621</v>
+        <v>6.132312775258061e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.719187712820077</v>
+        <v>1994875897.467501</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>6.132312775258061e-17</v>
+        <v>6.005555993393399e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>1994875897.467501</v>
+        <v>244.0372171596642</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>6.005555993393399e-08</v>
+        <v>0.0002023263594207572</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>244.0372171596642</v>
+        <v>10.60583812033521</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0002023263594207572</v>
+        <v>1.439380643629302</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.60583812033521</v>
+        <v>0.02275843819996252</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.439380643629302</v>
+        <v>3.315199309707636</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02275843819996252</v>
+        <v>0.9607957427276732</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.315199309707636</v>
+        <v>1.257456042475031</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9607957427276732</v>
+        <v>82</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.257456042475031</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>1.511474900449886</v>
       </c>
     </row>
@@ -7795,72 +7759,66 @@
         <v>2.082832190537092e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.5150465894664288</v>
+        <v>6.626254606516265e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.092925711081393</v>
+        <v>1.56328667603341e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>6.626254606516265e-08</v>
+        <v>-0.01452028265441898</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.56328667603341e-06</v>
+        <v>0.1276181761581518</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.01452028265441898</v>
+        <v>0.01649247382227567</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1276181761581518</v>
+        <v>1.909720371925834</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01649247382227567</v>
+        <v>2.402226516640553</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.927605541989454</v>
+        <v>4.536637922464925</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.402226516640553</v>
+        <v>9.648261315125624e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.536637922464925</v>
+        <v>1278636169.222818</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>9.648261315125624e-17</v>
+        <v>9.370820843867154e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>1278636169.222818</v>
+        <v>157.7404327973633</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>9.370820843867154e-08</v>
+        <v>0.0002273285196115179</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>157.7404327973633</v>
+        <v>11.67069782923103</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0002273285196115179</v>
+        <v>1.382272357248135</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>11.67069782923103</v>
+        <v>0.03096332371080621</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.382272357248135</v>
+        <v>3.097958620405671</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.03096332371080621</v>
+        <v>0.9620681638471332</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.097958620405671</v>
+        <v>1.24797059023431</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9620681638471332</v>
+        <v>82</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.24797059023431</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>1.053235243658247</v>
       </c>
     </row>
@@ -7875,72 +7833,66 @@
         <v>2.042034572724644e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.4827331901147491</v>
+        <v>6.497116166303951e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.140573970066296</v>
+        <v>1.563035960608756e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>6.497116166303951e-08</v>
+        <v>-0.009925894839494897</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.563035960608756e-06</v>
+        <v>0.1337341234533662</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.009925894839494897</v>
+        <v>0.01798055126650139</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1337341234533662</v>
+        <v>1.908306944889932</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01798055126650139</v>
+        <v>2.377545177840029</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.924115380295466</v>
+        <v>4.140842365868776</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.377545177840029</v>
+        <v>1.15808356668473e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.140842365868776</v>
+        <v>1064722005.749134</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.15808356668473e-16</v>
+        <v>1.125822161891098e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>1064722005.749134</v>
+        <v>131.2841689498931</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.125822161891098e-07</v>
+        <v>0.0001909273472531403</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>131.2841689498931</v>
+        <v>13.06422007980919</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001909273472531403</v>
+        <v>1.125946926706698</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>13.06422007980919</v>
+        <v>0.0325863047183444</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.125946926706698</v>
+        <v>3.063224198347278</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0325863047183444</v>
+        <v>0.9630792306122996</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.063224198347278</v>
+        <v>1.246653484397255</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9630792306122996</v>
+        <v>82</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.246653484397255</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.8292874158838377</v>
       </c>
     </row>
@@ -7955,72 +7907,66 @@
         <v>2.014011171023737e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.4535197602979258</v>
+        <v>6.374243259872428e-08</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.194497835097104</v>
+        <v>1.562874442741157e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>6.374243259872428e-08</v>
+        <v>-0.006086626190050957</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.562874442741157e-06</v>
+        <v>0.1375376702864504</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.006086626190050957</v>
+        <v>0.01895181689955822</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1375376702864504</v>
+        <v>1.905228714989865</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01895181689955822</v>
+        <v>2.364052603956412</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.919727975098079</v>
+        <v>3.998709579882771</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.364052603956412</v>
+        <v>1.241874097304834e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.998709579882771</v>
+        <v>983660182.7613878</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.241874097304834e-16</v>
+        <v>1.218665431019449e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>983660182.7613878</v>
+        <v>120.1621673240685</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.218665431019449e-07</v>
+        <v>0.0001647112781182802</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>120.1621673240685</v>
+        <v>12.40235604673272</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001647112781182802</v>
+        <v>1.048187908047639</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>12.40235604673272</v>
+        <v>0.02533563111099445</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.048187908047639</v>
+        <v>2.944716312287516</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.02533563111099445</v>
+        <v>0.9633132825350562</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.944716312287516</v>
+        <v>1.278970011335911</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9633132825350562</v>
+        <v>44</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.278970011335911</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.631281615873535</v>
       </c>
     </row>
@@ -8035,72 +7981,66 @@
         <v>1.998049944313084e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.4339391482978602</v>
+        <v>6.257492071817967e-08</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.235047372920436</v>
+        <v>1.562786238140209e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>6.257492071817967e-08</v>
+        <v>-0.002759363560142967</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.562786238140209e-06</v>
+        <v>0.1397880347065448</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.002759363560142967</v>
+        <v>0.01954698703935037</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1397880347065448</v>
+        <v>1.904575531468517</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01954698703935037</v>
+        <v>2.297534563930234</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.916337281003524</v>
+        <v>3.919824688966608</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.297534563930234</v>
+        <v>1.292361486226183e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.919824688966608</v>
+        <v>966491470.0326276</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.292361486226183e-16</v>
+        <v>1.24093150818625e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>966491470.0326276</v>
+        <v>120.7202310413045</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.24093150818625e-07</v>
+        <v>0.0001590017333580283</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>120.7202310413045</v>
+        <v>10.81935092537657</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001590017333580283</v>
+        <v>1.11091512393108</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.81935092537657</v>
+        <v>0.0186124812610235</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.11091512393108</v>
+        <v>2.903825921510336</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.0186124812610235</v>
+        <v>0.963129106198187</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.903825921510336</v>
+        <v>1.246092493699857</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.963129106198187</v>
+        <v>11</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.246092493699857</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.5041971438976224</v>
       </c>
     </row>
@@ -8115,72 +8055,66 @@
         <v>1.993454828471994e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.4278148413399073</v>
+        <v>6.147768999208017e-08</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.248466683053321</v>
+        <v>1.562761416950985e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>6.147768999208017e-08</v>
+        <v>0.0002240492807859081</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.562761416950985e-06</v>
+        <v>0.1405972007511727</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.0002240492807859081</v>
+        <v>0.01976668965070933</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1405972007511727</v>
+        <v>1.902913709567185</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01976668965070933</v>
+        <v>2.317430006644369</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.914944490650781</v>
+        <v>3.83369134477563</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.317430006644369</v>
+        <v>1.351086038865332e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.83369134477563</v>
+        <v>930155648.3341485</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.351086038865332e-16</v>
+        <v>1.286384295146577e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>930155648.3341485</v>
+        <v>116.8945495128289</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.286384295146577e-07</v>
+        <v>0.0001568326762424887</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>116.8945495128289</v>
+        <v>9.284744877006684</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001568326762424887</v>
+        <v>1.249989324770217</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.284744877006684</v>
+        <v>0.01351999413328417</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.249989324770217</v>
+        <v>3.007857581783127</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01351999413328417</v>
+        <v>0.9617389568253008</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.007857581783127</v>
+        <v>1.263516236139359</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9617389568253008</v>
+        <v>9</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.263516236139359</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.4694359914107321</v>
       </c>
     </row>
@@ -8195,72 +8129,66 @@
         <v>1.998990522207378e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.435293506212274</v>
+        <v>6.271363691821523e-08</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.231896667993354</v>
+        <v>1.562791112674141e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>6.271363691821523e-08</v>
+        <v>0.00256698098379848</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.562791112674141e-06</v>
+        <v>0.1400634322735219</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.00256698098379848</v>
+        <v>0.01962386885921116</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1400634322735219</v>
+        <v>1.907696442975601</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01962386885921116</v>
+        <v>2.214389810376916</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.913560468068332</v>
+        <v>3.645023265553401</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.214389810376916</v>
+        <v>1.494571462973831e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.645023265553401</v>
+        <v>833936595.8767924</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.494571462973831e-16</v>
+        <v>1.439091746362567e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>833936595.8767924</v>
+        <v>103.9400091503901</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.439091746362567e-07</v>
+        <v>0.0001569120323417359</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>103.9400091503901</v>
+        <v>8.73976791543449</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001569120323417359</v>
+        <v>1.519509131096823</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.73976791543449</v>
+        <v>0.01198549700343173</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.519509131096823</v>
+        <v>3.205818468216789</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01198549700343173</v>
+        <v>0.9627084856106575</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.205818468216789</v>
+        <v>1.279305075853479</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9627084856106575</v>
+        <v>7</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.279305075853479</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.5589105524538802</v>
       </c>
     </row>
@@ -8275,72 +8203,66 @@
         <v>2.011077411480862e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.4504600591737104</v>
+        <v>6.280870479068459e-08</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.200018761729012</v>
+        <v>1.562857401973216e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>6.280870479068459e-08</v>
+        <v>0.003899405366856036</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.562857401973216e-06</v>
+        <v>0.1387636290238052</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.003899405366856036</v>
+        <v>0.0192699673979767</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1387636290238052</v>
+        <v>1.909060589594775</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.0192699673979767</v>
+        <v>2.170085504490907</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.913355443579605</v>
+        <v>3.596417588548895</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.170085504490907</v>
+        <v>1.535242799494696e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.596417588548895</v>
+        <v>809157211.7889537</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.535242799494696e-16</v>
+        <v>1.481483402139548e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>809157211.7889537</v>
+        <v>100.5177798276438</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.481483402139548e-07</v>
+        <v>0.0001511063356936715</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>100.5177798276438</v>
+        <v>10.45338235241105</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001511063356936715</v>
+        <v>1.30914548786847</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>10.45338235241105</v>
+        <v>0.01651187323525928</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.30914548786847</v>
+        <v>3.308703225757373</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01651187323525928</v>
+        <v>0.9625133496719913</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.308703225757373</v>
+        <v>1.304513916032331</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9625133496719913</v>
+        <v>7</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.304513916032331</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.6927927388127146</v>
       </c>
     </row>
@@ -8355,72 +8277,66 @@
         <v>2.026272130541331e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.4668681834352297</v>
+        <v>6.280870479068459e-08</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.169541907951302</v>
+        <v>1.562944303769199e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>6.280870479068459e-08</v>
+        <v>0.004609338515589823</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.562944303769199e-06</v>
+        <v>0.1373282362392226</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.004609338515589823</v>
+        <v>0.01887942029056783</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1373282362392226</v>
+        <v>1.903477702036295</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01887942029056783</v>
+        <v>2.098125672357379</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.909804724619071</v>
+        <v>3.668197837048254</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.098125672357379</v>
+        <v>1.475746609642984e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.668197837048254</v>
+        <v>807865638.6215302</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.475746609642984e-16</v>
+        <v>1.473329001216476e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>807865638.6215302</v>
+        <v>96.31414353080115</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.473329001216476e-07</v>
+        <v>0.0001472456400942897</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>96.31414353080115</v>
+        <v>11.52535931602994</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001472456400942897</v>
+        <v>1.060715260693684</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>11.52535931602994</v>
+        <v>0.01955921371597858</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.060715260693684</v>
+        <v>3.081249826639894</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01955921371597858</v>
+        <v>0.9616541371904025</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.081249826639894</v>
+        <v>1.298290630223725</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9616541371904025</v>
+        <v>7</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.298290630223725</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.6476872564354357</v>
       </c>
     </row>
@@ -8435,72 +8351,66 @@
         <v>2.042364232948855e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.4806885739547838</v>
+        <v>6.280870479068459e-08</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.149392950501402</v>
+        <v>1.563041744946263e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>6.280870479068459e-08</v>
+        <v>0.004883882134214985</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.563041744946263e-06</v>
+        <v>0.1360394848923136</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.004883882134214985</v>
+        <v>0.01852948796880422</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1360394848923136</v>
+        <v>1.90248898013833</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01852948796880422</v>
+        <v>2.069498664701503</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.911637159961853</v>
+        <v>3.883552352979202</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.069498664701503</v>
+        <v>1.316615509839439e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.883552352979202</v>
+        <v>910520323.6377809</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.316615509839439e-16</v>
+        <v>1.306203270420107e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>910520323.6377809</v>
+        <v>109.1536480586544</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.306203270420107e-07</v>
+        <v>0.0001498930529762762</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>109.1536480586544</v>
+        <v>10.66909135462781</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001498930529762762</v>
+        <v>1.099637023300954</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>10.66909135462781</v>
+        <v>0.01706225282266698</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.099637023300954</v>
+        <v>2.979716796948541</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01706225282266698</v>
+        <v>0.9629655108979994</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.979716796948541</v>
+        <v>1.30957795402707</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9629655108979994</v>
+        <v>7</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.30957795402707</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.528630134180057</v>
       </c>
     </row>
@@ -8515,72 +8425,66 @@
         <v>2.0579103554193e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.4902533990461669</v>
+        <v>6.280870479068459e-08</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.141836529069889</v>
+        <v>1.563142493526238e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>6.280870479068459e-08</v>
+        <v>0.004879916503176643</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.563142493526238e-06</v>
+        <v>0.1349882543717959</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.004879916503176643</v>
+        <v>0.01824443291882489</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1349882543717959</v>
+        <v>1.898768053124651</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01824443291882489</v>
+        <v>2.037285787554215</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.909925042648021</v>
+        <v>4.314829981694798</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.037285787554215</v>
+        <v>1.066571364532589e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.314829981694798</v>
+        <v>1130644474.580663</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.066571364532589e-16</v>
+        <v>1.052194841600364e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>1130644474.580663</v>
+        <v>136.3458892949762</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.052194841600364e-07</v>
+        <v>0.0001438428385792596</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>136.3458892949762</v>
+        <v>9.288851403272313</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001438428385792596</v>
+        <v>1.183942899160941</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.288851403272313</v>
+        <v>0.01241115717525003</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.183942899160941</v>
+        <v>3.102072995212894</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01241115717525003</v>
+        <v>0.9633586775238421</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.102072995212894</v>
+        <v>1.294320419862617</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9633586775238421</v>
+        <v>9</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.294320419862617</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.5078543387089964</v>
       </c>
     </row>
@@ -8595,72 +8499,66 @@
         <v>2.072128914925492e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.495436347485035</v>
+        <v>6.280870479068459e-08</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.145069393283232</v>
+        <v>1.563241844612166e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>6.280870479068459e-08</v>
+        <v>0.004696307278355848</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.563241844612166e-06</v>
+        <v>0.134178067038369</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.004696307278355848</v>
+        <v>0.01802447654344893</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.134178067038369</v>
+        <v>1.89159739665477</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01802447654344893</v>
+        <v>2.059905115045154</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.906197884430556</v>
+        <v>4.613779254854133</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.059905115045154</v>
+        <v>7.94435659664217e-17</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.613779254854133</v>
+        <v>1520819055.45164</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>7.94435659664217e-17</v>
+        <v>7.811485323845713e-08</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>1520819055.45164</v>
+        <v>183.7442769085222</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>7.811485323845713e-08</v>
+        <v>0.0001339644752137739</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>183.7442769085222</v>
+        <v>8.189800370432165</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001339644752137739</v>
+        <v>1.286394959910368</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.189800370432165</v>
+        <v>0.008985376486457985</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.286394959910368</v>
+        <v>3.309361017519389</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.008985376486457985</v>
+        <v>0.9630740526614573</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.309361017519389</v>
+        <v>1.292926757413214</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9630740526614573</v>
+        <v>19</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.292926757413214</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.6565720403661732</v>
       </c>
     </row>
@@ -8675,72 +8573,66 @@
         <v>2.084703529965088e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.4967668220289861</v>
+        <v>6.280870479068459e-08</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.156173055260537</v>
+        <v>1.563337321227514e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>6.280870479068459e-08</v>
+        <v>0.004468217139176843</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.563337321227514e-06</v>
+        <v>0.1335272964320218</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.004468217139176843</v>
+        <v>0.01784816137017866</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1335272964320218</v>
+        <v>1.886990640952818</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01784816137017866</v>
+        <v>2.180705102572062</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.903156126227628</v>
+        <v>5.127739353866554</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.180705102572062</v>
+        <v>6.431621387247809e-17</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>5.127739353866554</v>
+        <v>1902263049.671619</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>6.431621387247809e-17</v>
+        <v>6.246238866336011e-08</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>1902263049.671619</v>
+        <v>232.7349544577046</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>6.246238866336011e-08</v>
+        <v>0.0001270573568541943</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>232.7349544577046</v>
+        <v>7.790150647881321</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001270573568541943</v>
+        <v>1.43553146453741</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>7.790150647881321</v>
+        <v>0.00771065956751793</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.43553146453741</v>
+        <v>3.609387450805736</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.00771065956751793</v>
+        <v>0.964261209611639</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.609387450805736</v>
+        <v>1.28469266243047</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.964261209611639</v>
+        <v>54</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.28469266243047</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>1.082129704003559</v>
       </c>
     </row>
@@ -8755,72 +8647,66 @@
         <v>2.095808761306217e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.4950065862011704</v>
+        <v>6.280870479068459e-08</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.172491259865495</v>
+        <v>1.563429544497705e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>6.280870479068459e-08</v>
+        <v>0.00436176547938193</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1.563429544497705e-06</v>
+        <v>0.132885135829461</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.00436176547938193</v>
+        <v>0.01767624167081668</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.132885135829461</v>
+        <v>1.882205019179085</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.01767624167081668</v>
+        <v>2.054362024716051</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.898838644409382</v>
+        <v>5.625938820134948</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.054362024716051</v>
+        <v>5.285654167949396e-17</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>5.625938820134948</v>
+        <v>2256374877.383489</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>5.285654167949396e-17</v>
+        <v>5.238094661567907e-08</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>2256374877.383489</v>
+        <v>269.1046831672435</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>5.238094661567907e-08</v>
+        <v>0.0001216475305202344</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>269.1046831672435</v>
+        <v>9.215465245388577</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001216475305202344</v>
+        <v>1.258162833493411</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>9.215465245388577</v>
+        <v>0.01033089216208813</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.258162833493411</v>
+        <v>3.871184942653967</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01033089216208813</v>
+        <v>0.9626406043698178</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.871184942653967</v>
+        <v>1.294037333779793</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9626406043698178</v>
+        <v>70</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.294037333779793</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>1.880237654369242</v>
       </c>
     </row>
@@ -8835,72 +8721,66 @@
         <v>2.10595887052423e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.4906923480020206</v>
+        <v>6.280870479068459e-08</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.192567099488337</v>
+        <v>1.563522167447325e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>6.280870479068459e-08</v>
+        <v>0.004452796281346554</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1.563522167447325e-06</v>
+        <v>0.1321596116756175</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.004452796281346554</v>
+        <v>0.01748480275257842</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1321596116756175</v>
+        <v>1.88525823641852</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.01748480275257842</v>
+        <v>2.384526608277943</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.911128143818253</v>
+        <v>5.061401050005764</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.384526608277943</v>
+        <v>4.151745979771537e-17</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>5.061401050005764</v>
+        <v>2962358136.825813</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>4.151745979771537e-17</v>
+        <v>4.017064511929188e-08</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>2962358136.825813</v>
+        <v>364.3391974314492</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>4.017064511929188e-08</v>
+        <v>0.0001022909524556186</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>364.3391974314492</v>
+        <v>10.21458250385547</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001022909524556186</v>
+        <v>1.041406820223031</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>10.21458250385547</v>
+        <v>0.01067280227304885</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.041406820223031</v>
+        <v>4.200149488187551</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01067280227304885</v>
+        <v>0.9621386021978302</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>4.200149488187551</v>
+        <v>1.204399525570306</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9621386021978302</v>
+        <v>92</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.204399525570306</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>2.552036886032861</v>
       </c>
     </row>
@@ -8915,72 +8795,66 @@
         <v>2.115503861608962e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.4840173604951116</v>
+        <v>6.280870479068459e-08</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.215676020913327</v>
+        <v>1.563618439968484e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>6.280870479068459e-08</v>
+        <v>0.004670136347839786</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1.563618439968484e-06</v>
+        <v>0.1313860737080362</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.004670136347839786</v>
+        <v>0.01728299794254931</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1313860737080362</v>
+        <v>1.897666436252953</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.01728299794254931</v>
+        <v>2.425570231881807</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.924480955971739</v>
+        <v>4.903747888125615</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>2.425570231881807</v>
+        <v>4.422990507350205e-17</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.903747888125615</v>
+        <v>2812240673.198788</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>4.422990507350205e-17</v>
+        <v>4.241243574629526e-08</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>2812240673.198788</v>
+        <v>349.8009442796688</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>4.241243574629526e-08</v>
+        <v>7.548788642338836e-05</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>349.8009442796688</v>
+        <v>8.637324228923084</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>7.548788642338836e-05</v>
+        <v>1.216107612148424</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>8.637324228923084</v>
+        <v>0.005631650708947413</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.216107612148424</v>
+        <v>4.750408636134765</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.005631650708947413</v>
+        <v>0.96186624992408</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>4.750408636134765</v>
+        <v>1.112884789117621</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.96186624992408</v>
+        <v>103</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.112884789117621</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>103</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>2.966701793646997</v>
       </c>
     </row>
@@ -8995,72 +8869,66 @@
         <v>2.124697228290795e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.4749472034226564</v>
+        <v>6.280870479068459e-08</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.241486537220077</v>
+        <v>1.563721620875616e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>6.280870479068459e-08</v>
+        <v>0.005064768224973048</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1.563721620875616e-06</v>
+        <v>0.1305189854003226</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.005064768224973048</v>
+        <v>0.01705984838517509</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1305189854003226</v>
+        <v>1.903926421096704</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.01705984838517509</v>
+        <v>2.34575579702722</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.930367094804345</v>
+        <v>4.641547907112982</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>2.34575579702722</v>
+        <v>3.276535399406927e-17</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.641547907112982</v>
+        <v>3741766246.932358</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>3.276535399406927e-17</v>
+        <v>3.190603055056362e-08</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>3741766246.932358</v>
+        <v>458.7416481038943</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>3.190603055056362e-08</v>
+        <v>8.677763548241906e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>458.7416481038943</v>
+        <v>8.673374374698955</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>8.677763548241906e-05</v>
+        <v>1.213000995441627</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>8.673374374698955</v>
+        <v>0.006528057895166585</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.213000995441627</v>
+        <v>4.558919391781885</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.006528057895166585</v>
+        <v>0.9608775530470586</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>4.558919391781885</v>
+        <v>1.068601461893377</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9608775530470586</v>
+        <v>107</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.068601461893377</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>107</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>2.638008228941897</v>
       </c>
     </row>
@@ -9075,72 +8943,66 @@
         <v>2.13374745758289e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.4632992997594086</v>
+        <v>6.280870479068459e-08</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.26987179283393</v>
+        <v>1.563835300334598e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>6.280870479068459e-08</v>
+        <v>0.005617498227091236</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1.563835300334598e-06</v>
+        <v>0.1295757087132122</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.005617498227091236</v>
+        <v>0.01682056970874632</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1295757087132122</v>
+        <v>1.904650821105808</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.01682056970874632</v>
+        <v>2.633176650462492</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.934845555208347</v>
+        <v>4.652036352497699</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.633176650462492</v>
+        <v>2.869326221633369e-17</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.652036352497699</v>
+        <v>4305576137.026811</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2.869326221633369e-17</v>
+        <v>2.770455543804509e-08</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>4305576137.026811</v>
+        <v>531.9152895803734</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>2.770455543804509e-08</v>
+        <v>0.0001157202859670599</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>531.9152895803734</v>
+        <v>10.26126923880033</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001157202859670599</v>
+        <v>1.195509439954584</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>10.26126923880033</v>
+        <v>0.01218461087089834</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.195509439954584</v>
+        <v>4.235637997916973</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01218461087089834</v>
+        <v>0.9610128589676334</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>4.235637997916973</v>
+        <v>1.025577320361279</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9610128589676334</v>
+        <v>109</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.025577320361279</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>109</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>2.541037231687235</v>
       </c>
     </row>
@@ -9155,72 +9017,66 @@
         <v>2.14284443746022e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.4487915499265729</v>
+        <v>6.280870479068459e-08</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.300819951394467</v>
+        <v>1.563963509060849e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>6.280870479068459e-08</v>
+        <v>0.006403208191554481</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.563963509060849e-06</v>
+        <v>0.1285375976699722</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.006403208191554481</v>
+        <v>0.01656226468892419</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1285375976699722</v>
+        <v>1.90168205700394</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.01656226468892419</v>
+        <v>2.945062958056653</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.937040171225223</v>
+        <v>4.575779284107875</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.945062958056653</v>
+        <v>3.076320149074771e-17</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.575779284107875</v>
+        <v>3916019929.192581</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>3.076320149074771e-17</v>
+        <v>3.043018681489715e-08</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>3916019929.192581</v>
+        <v>471.7602192998443</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>3.043018681489715e-08</v>
+        <v>0.0001322584696716741</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>471.7602192998443</v>
+        <v>12.18978444021648</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001322584696716741</v>
+        <v>1.065442956730319</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>12.18978444021648</v>
+        <v>0.0196523977271037</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.065442956730319</v>
+        <v>4.213604040505943</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.0196523977271037</v>
+        <v>0.9595466738765114</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>4.213604040505943</v>
+        <v>1.040126674992006</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9595466738765114</v>
+        <v>109</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.040126674992006</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>109</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>3.316811077131959</v>
       </c>
     </row>
@@ -9235,72 +9091,66 @@
         <v>2.152332948346777e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.4309032364744031</v>
+        <v>6.280870479068459e-08</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.334816963472866</v>
+        <v>1.564112626234763e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>6.280870479068459e-08</v>
+        <v>0.007536233260270995</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1.564112626234763e-06</v>
+        <v>0.1274080766502095</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.007536233260270995</v>
+        <v>0.01628912446460491</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1274080766502095</v>
+        <v>1.901094921764878</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.01628912446460491</v>
+        <v>2.689439354938096</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.944641237774969</v>
+        <v>4.687647069043202</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.689439354938096</v>
+        <v>3.509499733186393e-17</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.687647069043202</v>
+        <v>3350379329.023773</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>3.509499733186393e-17</v>
+        <v>3.541836758230103e-08</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>3350379329.023773</v>
+        <v>393.9428066988974</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>3.541836758230103e-08</v>
+        <v>0.0001383994711183728</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>393.9428066988974</v>
+        <v>14.55033927744286</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001383994711183728</v>
+        <v>0.9386550301473309</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>14.55033927744286</v>
+        <v>0.02930088046469121</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>0.9386550301473309</v>
+        <v>4.425932485317091</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.02930088046469121</v>
+        <v>0.9576819122750838</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>4.425932485317091</v>
+        <v>0.992275682353446</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9576819122750838</v>
+        <v>109</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.992275682353446</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>109</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>4.936685776258853</v>
       </c>
     </row>
@@ -9315,72 +9165,66 @@
         <v>2.162734262529004e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.4088996376119459</v>
+        <v>6.280870479068459e-08</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.372769158994949</v>
+        <v>1.564291526143653e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>6.280870479068459e-08</v>
+        <v>0.009115244931472666</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>1.564291526143653e-06</v>
+        <v>0.1262702302939446</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.009115244931472666</v>
+        <v>0.01602680296107213</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1262702302939446</v>
+        <v>1.891330772111643</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.01602680296107213</v>
+        <v>2.498494723511665</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.942782831781434</v>
+        <v>4.688615112420059</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>2.498494723511665</v>
+        <v>3.942231901066726e-17</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.688615112420059</v>
+        <v>3013818952.909584</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>3.942231901066726e-17</v>
+        <v>3.929765363692444e-08</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>3013818952.909584</v>
+        <v>358.0770503383957</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>3.929765363692444e-08</v>
+        <v>0.0001425611273003542</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>358.0770503383957</v>
+        <v>14.19312510015201</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001425611273003542</v>
+        <v>1.022761418568679</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>14.19312510015201</v>
+        <v>0.02871819779227157</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.022761418568679</v>
+        <v>4.674806371871473</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.02871819779227157</v>
+        <v>0.9580616232741829</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>4.674806371871473</v>
+        <v>1.007822715197158</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9580616232741829</v>
+        <v>109</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.007822715197158</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>109</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>5.594281845304597</v>
       </c>
     </row>
@@ -9395,72 +9239,66 @@
         <v>2.174815107032635e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.3820333223599176</v>
+        <v>6.280870479068459e-08</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.41577534493933</v>
+        <v>1.564511255577615e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>6.280870479068459e-08</v>
+        <v>0.01126224131601899</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1.564511255577615e-06</v>
+        <v>0.1252915012523559</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.01126224131601899</v>
+        <v>0.01582403183332405</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1252915012523559</v>
+        <v>1.894303961165411</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.01582403183332405</v>
+        <v>2.241941306018399</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.951226576404893</v>
+        <v>4.970715177394259</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>2.241941306018399</v>
+        <v>3.379886407733204e-17</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.970715177394259</v>
+        <v>3498191490.44605</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>3.379886407733204e-17</v>
+        <v>3.3875460156751e-08</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>3498191490.44605</v>
+        <v>413.6083165133167</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>3.3875460156751e-08</v>
+        <v>0.000139567890554912</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>413.6083165133167</v>
+        <v>13.13132297103113</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.000139567890554912</v>
+        <v>1.074375006586967</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>13.13132297103113</v>
+        <v>0.02406592067417499</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.074375006586967</v>
+        <v>4.632260391959082</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.02406592067417499</v>
+        <v>0.957806589096955</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>4.632260391959082</v>
+        <v>0.910869447644898</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.957806589096955</v>
+        <v>109</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>0.910869447644898</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>109</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>5.283406293425436</v>
       </c>
     </row>
@@ -9475,72 +9313,66 @@
         <v>2.189630885013378e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.3496237517151803</v>
+        <v>6.280870479068459e-08</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.464750659155968</v>
+        <v>1.564785897727407e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>6.280870479068459e-08</v>
+        <v>0.01390316801670991</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>1.564785897727407e-06</v>
+        <v>0.1243768681480723</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.01390316801670991</v>
+        <v>0.01566212335703934</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1243768681480723</v>
+        <v>1.89107667760331</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.01566212335703934</v>
+        <v>2.41947766366894</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.942052384940882</v>
+        <v>5.239547424568638</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>2.41947766366894</v>
+        <v>2.597178573772939e-17</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>5.239547424568638</v>
+        <v>4871406112.249273</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>2.597178573772939e-17</v>
+        <v>2.448540264661141e-08</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>4871406112.249273</v>
+        <v>616.3259939699507</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>2.448540264661141e-08</v>
+        <v>0.000124944895148416</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>616.3259939699507</v>
+        <v>13.05458195730793</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.000124944895148416</v>
+        <v>1.022802587833724</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>13.05458195730793</v>
+        <v>0.02129337267492614</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.022802587833724</v>
+        <v>4.740743170951529</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.02129337267492614</v>
+        <v>0.9599902006799049</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>4.740743170951529</v>
+        <v>1.019144387827041</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9599902006799049</v>
+        <v>116</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.019144387827041</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>116</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>5.470273981916805</v>
       </c>
     </row>
@@ -9555,72 +9387,66 @@
         <v>2.207000000030138e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.3121533563272921</v>
+        <v>6.280870479068459e-08</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.517196983961292</v>
+        <v>1.565116797966809e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>6.280870479068459e-08</v>
+        <v>0.01609274187634184</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1.565116797966809e-06</v>
+        <v>0.1230286931094465</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.01609274187634184</v>
+        <v>0.01539455870599887</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1230286931094465</v>
+        <v>1.888231169657458</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.01539455870599887</v>
+        <v>2.453547253401462</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.937027617537393</v>
+        <v>5.144749837074712</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>2.453547253401462</v>
+        <v>2.693772025144637e-17</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>5.144749837074712</v>
+        <v>4683431804.527224</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>2.693772025144637e-17</v>
+        <v>2.544436721539112e-08</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>4683431804.527224</v>
+        <v>590.8663263977355</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>2.544436721539112e-08</v>
+        <v>0.0001443355936117439</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>590.8663263977355</v>
+        <v>9.898929618552971</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001443355936117439</v>
+        <v>1.498873348046828</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>9.898929618552971</v>
+        <v>0.01414327271125203</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.498873348046828</v>
+        <v>4.4976281132709</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01414327271125203</v>
+        <v>0.959042243080815</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>4.4976281132709</v>
+        <v>1.149662120212007</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.959042243080815</v>
+        <v>116</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.149662120212007</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>116</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>3.802001088173431</v>
       </c>
     </row>
@@ -9635,72 +9461,66 @@
         <v>2.22547132392909e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.2706407611252644</v>
+        <v>6.280870479068459e-08</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.568867740741168</v>
+        <v>1.565493008264085e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>6.280870479068459e-08</v>
+        <v>0.01778656814031169</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>1.565493008264085e-06</v>
+        <v>0.1214505358112058</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.01778656814031169</v>
+        <v>0.01506622495360191</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1214505358112058</v>
+        <v>1.889864805685651</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.01506622495360191</v>
+        <v>2.7102148090018</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.939140456857583</v>
+        <v>5.138986191366138</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>2.7102148090018</v>
+        <v>2.699817830126848e-17</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>5.138986191366138</v>
+        <v>4677207785.896588</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>2.699817830126848e-17</v>
+        <v>2.552536061175005e-08</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>4677207785.896588</v>
+        <v>590.619510178017</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>2.552536061175005e-08</v>
+        <v>0.0001343578202781276</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>590.619510178017</v>
+        <v>8.792949253599794</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001343578202781276</v>
+        <v>1.570451449509691</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>8.792949253599794</v>
+        <v>0.01038800339832094</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.570451449509691</v>
+        <v>4.04318540551375</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01038800339832094</v>
+        <v>0.9592368534520405</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>4.04318540551375</v>
+        <v>1.146573366359396</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9592368534520405</v>
+        <v>116</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.146573366359396</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>116</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>2.163519247509163</v>
       </c>
     </row>
@@ -9715,72 +9535,66 @@
         <v>2.243841456089034e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.225686357184519</v>
+        <v>6.280870479068459e-08</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.616882844564662</v>
+        <v>1.565906517752204e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>6.280870479068459e-08</v>
+        <v>0.01916531576983355</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1.565906517752204e-06</v>
+        <v>0.1198596677890933</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.01916531576983355</v>
+        <v>0.01473333614045532</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1198596677890933</v>
+        <v>1.890853662001893</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.01473333614045532</v>
+        <v>2.766738598583069</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.941164232401642</v>
+        <v>5.104530359295549</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>2.766738598583069</v>
+        <v>2.736388649806307e-17</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>5.104530359295549</v>
+        <v>4865314366.536344</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>2.736388649806307e-17</v>
+        <v>2.465745520017736e-08</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>4865314366.536344</v>
+        <v>647.7383254987246</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>2.465745520017736e-08</v>
+        <v>0.0001198083273217617</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>647.7383254987246</v>
+        <v>9.062363984517154</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001198083273217617</v>
+        <v>1.243858696477252</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>9.062363984517154</v>
+        <v>0.009839431523646504</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.243858696477252</v>
+        <v>3.691020431074378</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.009839431523646504</v>
+        <v>0.9579773821020275</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.691020431074378</v>
+        <v>1.097046058230417</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9579773821020275</v>
+        <v>124</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.097046058230417</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>124</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>1.418147348910342</v>
       </c>
     </row>
@@ -9795,72 +9609,66 @@
         <v>2.261278540803478e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.1777203388762983</v>
+        <v>6.280870479068459e-08</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.659369801167311</v>
+        <v>1.566352206625251e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>6.280870479068459e-08</v>
+        <v>0.02037090650392797</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>1.566352206625251e-06</v>
+        <v>0.1183515305609482</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.02037090650392797</v>
+        <v>0.01442178168513384</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1183515305609482</v>
+        <v>1.900650098678658</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.01442178168513384</v>
+        <v>2.627560648146235</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.944773422437476</v>
+        <v>5.130395844419855</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>2.627560648146235</v>
+        <v>2.708866562130233e-17</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>5.130395844419855</v>
+        <v>4965569928.140721</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>2.708866562130233e-17</v>
+        <v>2.41100439841281e-08</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>4965569928.140721</v>
+        <v>667.9221052062004</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>2.41100439841281e-08</v>
+        <v>0.000121386107734579</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>667.9221052062004</v>
+        <v>9.635642554105157</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.000121386107734579</v>
+        <v>1.184606486750638</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>9.635642554105157</v>
+        <v>0.01127016690623894</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.184606486750638</v>
+        <v>3.435692799920199</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01127016690623894</v>
+        <v>0.9580498690816884</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.435692799920199</v>
+        <v>1.133329522073799</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9580498690816884</v>
+        <v>146</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.133329522073799</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>146</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>1.157381317902431</v>
       </c>
     </row>
@@ -9875,72 +9683,66 @@
         <v>2.277177409389918e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.1270952974429003</v>
+        <v>6.280870479068459e-08</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.695022122854481</v>
+        <v>1.566826489049349e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>6.280870479068459e-08</v>
+        <v>0.02135812403611206</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1.566826489049349e-06</v>
+        <v>0.1169859716386067</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.02135812403611206</v>
+        <v>0.01414162797212359</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1169859716386067</v>
+        <v>1.903338385474825</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.01414162797212359</v>
+        <v>2.827926288600743</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.948403057662975</v>
+        <v>4.979490500749867</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>2.827926288600743</v>
+        <v>2.875540880597276e-17</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.979490500749867</v>
+        <v>4587101379.695452</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>2.875540880597276e-17</v>
+        <v>2.61488963039402e-08</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>4587101379.695452</v>
+        <v>605.0569075794452</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>2.61488963039402e-08</v>
+        <v>0.0001200476813468568</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>605.0569075794452</v>
+        <v>9.621743240309117</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001200476813468568</v>
+        <v>1.174395246043542</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>9.621743240309117</v>
+        <v>0.01111376739890274</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.174395246043542</v>
+        <v>3.458227378870361</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01111376739890274</v>
+        <v>0.9578913633181145</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.458227378870361</v>
+        <v>1.153113426182057</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9578913633181145</v>
+        <v>111</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.153113426182057</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>111</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>1.211066158087754</v>
       </c>
     </row>
@@ -9955,72 +9757,66 @@
         <v>2.290704884056006e-08</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.0741340718897024</v>
+        <v>6.280870479068459e-08</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.722521571132421</v>
+        <v>1.567323738722236e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>6.280870479068459e-08</v>
+        <v>0.02215036094542842</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>1.567323738722236e-06</v>
+        <v>0.1157732618500715</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.02215036094542842</v>
+        <v>0.01389376035552656</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.1157732618500715</v>
+        <v>1.909351629931459</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.01389376035552656</v>
+        <v>2.944036631506064</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.952610098217473</v>
+        <v>4.906458785501163</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>2.944036631506064</v>
+        <v>2.961781747809869e-17</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>4.906458785501163</v>
+        <v>4428435108.755399</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>2.961781747809869e-17</v>
+        <v>2.717450258507287e-08</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>4428435108.755399</v>
+        <v>580.836129600111</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>2.717450258507287e-08</v>
+        <v>0.0001180247345342921</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>580.836129600111</v>
+        <v>8.42884153276891</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001180247345342921</v>
+        <v>1.351417346453234</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>8.42884153276891</v>
+        <v>0.008385110885104845</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.351417346453234</v>
+        <v>3.789679800849231</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.008385110885104845</v>
+        <v>0.959907667487949</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>3.789679800849231</v>
+        <v>1.090837036792866</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.959907667487949</v>
+        <v>101</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.090837036792866</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>101</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>1.473640804242057</v>
       </c>
     </row>
@@ -10035,72 +9831,66 @@
         <v>2.301124618088417e-08</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.01894043797853901</v>
+        <v>6.280870479068459e-08</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.740711552955625</v>
+        <v>1.567841351037143e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>6.280870479068459e-08</v>
+        <v>0.02292166362037104</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>1.567841351037143e-06</v>
+        <v>0.1147073618427333</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.02292166362037104</v>
+        <v>0.01368284069818726</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.1147073618427333</v>
+        <v>1.901943254264985</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.01368284069818726</v>
+        <v>2.87626970857985</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.949558465707921</v>
+        <v>4.903641094037878</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>2.87626970857985</v>
+        <v>2.965186476935435e-17</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>4.903641094037878</v>
+        <v>4253390477.676215</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>2.965186476935435e-17</v>
+        <v>2.818299487176293e-08</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>4253390477.676215</v>
+        <v>536.4416871319452</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>2.818299487176293e-08</v>
+        <v>0.0001307850843246149</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>536.4416871319452</v>
+        <v>8.012879503778633</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001307850843246149</v>
+        <v>1.790321690879648</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>8.012879503778633</v>
+        <v>0.008397218243420662</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.790321690879648</v>
+        <v>3.9038590189411</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.008397218243420662</v>
+        <v>0.9587377836862101</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>3.9038590189411</v>
+        <v>1.118640438183494</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9587377836862101</v>
+        <v>109</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.118640438183494</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>109</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>1.645268395509703</v>
       </c>
     </row>
@@ -10115,72 +9905,66 @@
         <v>2.308082233855771e-08</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.03839629831387679</v>
+        <v>6.280870479068459e-08</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.748836588841001</v>
+        <v>1.568379800876069e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>6.280870479068459e-08</v>
+        <v>0.02380786610750551</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>1.568379800876069e-06</v>
+        <v>0.1137747738679166</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0.02380786610750551</v>
+        <v>0.01351121787977378</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1137747738679166</v>
+        <v>1.902446664670406</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.01351121787977378</v>
+        <v>2.85803314796828</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.951484277833256</v>
+        <v>4.896066304091947</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>2.85803314796828</v>
+        <v>2.974368558206857e-17</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>4.896066304091947</v>
+        <v>4272502166.360779</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>2.974368558206857e-17</v>
+        <v>2.801678042821368e-08</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>4272502166.360779</v>
+        <v>542.9494090364576</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>2.801678042821368e-08</v>
+        <v>0.0001165966290715785</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>542.9494090364576</v>
+        <v>8.215545806439138</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001165966290715785</v>
+        <v>1.37283726518792</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>8.215545806439138</v>
+        <v>0.00786971197040773</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.37283726518792</v>
+        <v>3.800656285176862</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.00786971197040773</v>
+        <v>0.9579576776953195</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>3.800656285176862</v>
+        <v>1.182662641340586</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9579576776953195</v>
+        <v>102</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.182662641340586</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>102</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>1.473384634079993</v>
       </c>
     </row>
@@ -10195,72 +9979,66 @@
         <v>2.311559508900735e-08</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.09784229013987589</v>
+        <v>6.280870479068459e-08</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.746522478832194</v>
+        <v>1.568942088587212e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>6.280870479068459e-08</v>
+        <v>0.02489422291692082</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>1.568942088587212e-06</v>
+        <v>0.1129776039195294</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0.02489422291692082</v>
+        <v>0.01338342234024816</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1129776039195294</v>
+        <v>1.898689390876306</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.01338342234024816</v>
+        <v>2.902311177699327</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.948405737797475</v>
+        <v>4.863830366784114</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>2.902311177699327</v>
+        <v>3.013925568841929e-17</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>4.863830366784114</v>
+        <v>4186887112.814044</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>3.013925568841929e-17</v>
+        <v>2.854880629518395e-08</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>4186887112.814044</v>
+        <v>528.3418663811656</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>2.854880629518395e-08</v>
+        <v>0.0001148635528943882</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>528.3418663811656</v>
+        <v>9.235540555585899</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001148635528943882</v>
+        <v>1.188375773476119</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>9.235540555585899</v>
+        <v>0.009797310791256378</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.188375773476119</v>
+        <v>3.532024660882858</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.009797310791256378</v>
+        <v>0.9581898846182048</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>3.532024660882858</v>
+        <v>1.162054301690087</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9581898846182048</v>
+        <v>98</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.162054301690087</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>98</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>1.278915139716652</v>
       </c>
     </row>
@@ -10275,72 +10053,66 @@
         <v>2.311741222805239e-08</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.1594505654156833</v>
+        <v>6.280870479068459e-08</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-1.733593574726038</v>
+        <v>1.569532920823714e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>6.280870479068459e-08</v>
+        <v>0.02626785233758108</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>1.569532920823714e-06</v>
+        <v>0.1123090817088315</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.02626785233758108</v>
+        <v>0.01330306068932763</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.1123090817088315</v>
+        <v>1.894217810403243</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.01330306068932763</v>
+        <v>2.837964916490166</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.943823573735328</v>
+        <v>4.807212121605967</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>2.837964916490166</v>
+        <v>3.085338300638372e-17</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>4.807212121605967</v>
+        <v>4063406140.142469</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>3.085338300638372e-17</v>
+        <v>2.936203091499488e-08</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>4063406140.142469</v>
+        <v>509.4285205631967</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>2.936203091499488e-08</v>
+        <v>0.000115373739482607</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>509.4285205631967</v>
+        <v>9.26852193483205</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.000115373739482607</v>
+        <v>1.185594033811837</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>9.26852193483205</v>
+        <v>0.009911238645188936</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.185594033811837</v>
+        <v>3.511361366631254</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.009911238645188936</v>
+        <v>0.9569965545681057</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.511361366631254</v>
+        <v>1.126829148982581</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9569965545681057</v>
+        <v>96</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.126829148982581</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>96</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>1.267297275050677</v>
       </c>
     </row>
@@ -10355,72 +10127,66 @@
         <v>2.308838011618364e-08</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.2234086946657744</v>
+        <v>6.280870479068459e-08</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-1.709742483423923</v>
+        <v>1.570159816547809e-06</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>6.280870479068459e-08</v>
+        <v>0.02805523667878157</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>1.570159816547809e-06</v>
+        <v>0.1117638800797774</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>0.02805523667878157</v>
+        <v>0.01327790879263511</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.1117638800797774</v>
+        <v>1.895127305294566</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.01327790879263511</v>
+        <v>2.629047159779553</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.940349547128299</v>
+        <v>4.757646410556859</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>2.629047159779553</v>
+        <v>3.149959997569104e-17</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>4.757646410556859</v>
+        <v>4127880616.414529</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>3.149959997569104e-17</v>
+        <v>2.898404853486644e-08</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>4127880616.414529</v>
+        <v>536.7342329026164</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>2.898404853486644e-08</v>
+        <v>0.000111941232944108</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>536.7342329026164</v>
+        <v>8.839909924456604</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.000111941232944108</v>
+        <v>1.191694656513622</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>8.839909924456604</v>
+        <v>0.008747536543665953</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.191694656513622</v>
+        <v>3.776133094631074</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.008747536543665953</v>
+        <v>0.9571438914247108</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>3.776133094631074</v>
+        <v>1.130289604469686</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9571438914247108</v>
+        <v>98</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.130289604469686</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>98</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>1.596340029297556</v>
       </c>
     </row>
@@ -10435,72 +10201,66 @@
         <v>2.303083888702052e-08</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.2897765712549687</v>
+        <v>6.280870479068459e-08</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-1.674520996577753</v>
+        <v>1.570830289833521e-06</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>6.280870479068459e-08</v>
+        <v>0.03010809695885774</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>1.570830289833521e-06</v>
+        <v>0.1114047677548746</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>0.03010809695885774</v>
+        <v>0.0133171367586423</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.1114047677548746</v>
+        <v>1.89106845949102</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.0133171367586423</v>
+        <v>2.561305892613422</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.931452594196942</v>
+        <v>4.909954903997324</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>2.561305892613422</v>
+        <v>2.957565394046175e-17</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>4.909954903997324</v>
+        <v>4382403855.772159</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>2.957565394046175e-17</v>
+        <v>2.732389061711672e-08</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>4382403855.772159</v>
+        <v>568.014143871394</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>2.732389061711672e-08</v>
+        <v>0.000115769469503868</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>568.014143871394</v>
+        <v>8.913190055241961</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.000115769469503868</v>
+        <v>1.484079793092882</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>8.913190055241961</v>
+        <v>0.009197300522116873</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.484079793092882</v>
+        <v>4.200438158353706</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.009197300522116873</v>
+        <v>0.958919852680429</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>4.200438158353706</v>
+        <v>1.137250044014941</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.958919852680429</v>
+        <v>108</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.137250044014941</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>108</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>2.557301964691177</v>
       </c>
     </row>
@@ -10515,72 +10275,66 @@
         <v>2.294627673925685e-08</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.3583152503999155</v>
+        <v>6.280870479068459e-08</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-1.627300195986631</v>
+        <v>1.57154869207956e-06</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>6.280870479068459e-08</v>
+        <v>0.03244341493991662</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>1.57154869207956e-06</v>
+        <v>0.1113041775062956</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>0.03244341493991662</v>
+        <v>0.01344064315284204</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.1113041775062956</v>
+        <v>1.896142221579257</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.01344064315284204</v>
+        <v>2.510095501218665</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.932538424138467</v>
+        <v>5.123316021979244</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>2.510095501218665</v>
+        <v>2.716358407361186e-17</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>5.123316021979244</v>
+        <v>4817226118.771998</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>2.716358407361186e-17</v>
+        <v>2.492432373438555e-08</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>4817226118.771998</v>
+        <v>630.3490995603958</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>2.492432373438555e-08</v>
+        <v>0.0001137990494959774</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>630.3490995603958</v>
+        <v>9.643391025822927</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.0001137990494959774</v>
+        <v>1.610244185945889</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>9.643391025822927</v>
+        <v>0.01058274152416122</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.610244185945889</v>
+        <v>4.84768889611205</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.01058274152416122</v>
+        <v>0.9587965621809901</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>4.84768889611205</v>
+        <v>1.111561694946253</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9587965621809901</v>
+        <v>108</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1.111561694946253</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>108</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>4.394879132907347</v>
       </c>
     </row>
@@ -10595,72 +10349,66 @@
         <v>2.283943228983692e-08</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.4285050538590345</v>
+        <v>6.280870479068459e-08</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-1.567499183078576</v>
+        <v>1.57232076599454e-06</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>6.280870479068459e-08</v>
+        <v>0.03499977807274277</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>1.57232076599454e-06</v>
+        <v>0.1114594086056441</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>0.03499977807274277</v>
+        <v>0.01364764830038512</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.1114594086056441</v>
+        <v>1.894439350745364</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.01364764830038512</v>
+        <v>2.50734063622966</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.930161946836184</v>
+        <v>5.349945739067646</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>2.50734063622966</v>
+        <v>2.041912267373678e-17</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>5.349945739067646</v>
+        <v>6547403552.161591</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>2.041912267373678e-17</v>
+        <v>1.831544260146039e-08</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>6547403552.161591</v>
+        <v>875.3370230175902</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>1.831544260146039e-08</v>
+        <v>8.252734304896835e-05</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>875.3370230175902</v>
+        <v>10.57191278261929</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>8.252734304896835e-05</v>
+        <v>1.495674787236047</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>10.57191278261929</v>
+        <v>0.009223696545534395</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.495674787236047</v>
+        <v>5.541273869168562</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.009223696545534395</v>
+        <v>0.9587480679577073</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>5.541273869168562</v>
+        <v>1.183088971503886</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.9587480679577073</v>
+        <v>132</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1.183088971503886</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>132</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>5.64760624918526</v>
       </c>
     </row>
@@ -10675,72 +10423,66 @@
         <v>2.271025783481345e-08</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.4995747921655571</v>
+        <v>6.280870479068459e-08</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-1.494248586653424</v>
+        <v>1.573146739167859e-06</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>6.280870479068459e-08</v>
+        <v>0.03751091320399554</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>1.573146739167859e-06</v>
+        <v>0.1117270392185152</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>0.03751091320399554</v>
+        <v>0.01388956882198978</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.1117270392185152</v>
+        <v>1.898913961768649</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.01388956882198978</v>
+        <v>2.660544795961829</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.939306016414076</v>
+        <v>5.052997203313715</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>2.660544795961829</v>
+        <v>1.808734749544591e-17</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>5.052997203313715</v>
+        <v>6981694487.188936</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>1.808734749544591e-17</v>
+        <v>1.714125246369355e-08</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>6981694487.188936</v>
+        <v>881.6507138005214</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>1.714125246369355e-08</v>
+        <v>7.775076277964203e-05</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>881.6507138005214</v>
+        <v>9.814830702968893</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>7.775076277964203e-05</v>
+        <v>1.587410458014442</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>9.814830702968893</v>
+        <v>0.007489801088598137</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.587410458014442</v>
+        <v>5.561424856840531</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.007489801088598137</v>
+        <v>0.9571171842490923</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>5.561424856840531</v>
+        <v>0.9790623358483076</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.9571171842490923</v>
+        <v>156</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>0.9790623358483076</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>156</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>4.92059799707247</v>
       </c>
     </row>
@@ -10755,72 +10497,66 @@
         <v>2.25545461280939e-08</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.5709232444235689</v>
+        <v>6.280870479068459e-08</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-1.406725028740837</v>
+        <v>1.574021307148083e-06</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>6.280870479068459e-08</v>
+        <v>0.03963956077327972</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>1.574021307148083e-06</v>
+        <v>0.1120654171736605</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>0.03963956077327972</v>
+        <v>0.01412991536967601</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.1120654171736605</v>
+        <v>1.901787569597498</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.01412991536967601</v>
+        <v>2.652312771661365</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.941123025646805</v>
+        <v>5.326394011982519</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>2.652312771661365</v>
+        <v>1.968886633472609e-17</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>5.326394011982519</v>
+        <v>6399131410.639673</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>1.968886633472609e-17</v>
+        <v>1.871473800791325e-08</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>6399131410.639673</v>
+        <v>806.2370802149611</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>1.871473800791325e-08</v>
+        <v>0.0001152054857227721</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>806.2370802149611</v>
+        <v>10.46002044764501</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.0001152054857227721</v>
+        <v>1.450395958734425</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>10.46002044764501</v>
+        <v>0.01260486580259773</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.450395958734425</v>
+        <v>4.80688390526837</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.01260486580259773</v>
+        <v>0.9587366754057144</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>4.80688390526837</v>
+        <v>1.083597572261388</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9587366754057144</v>
+        <v>156</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1.083597572261388</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>156</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>3.307009184856411</v>
       </c>
     </row>
@@ -11197,7 +10933,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.40103764708755</v>
+        <v>1.403194968346049</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.120494585279092</v>
@@ -11286,7 +11022,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.416261840081195</v>
+        <v>1.416604200296371</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.116752651300426</v>
@@ -11375,7 +11111,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.450749131604699</v>
+        <v>1.447447853849659</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.122561334699785</v>
@@ -11464,7 +11200,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.461389533279594</v>
+        <v>1.451638644103536</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.146342034469145</v>
@@ -11553,7 +11289,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.486402277362396</v>
+        <v>1.474148075991904</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.156267488781837</v>
@@ -11642,7 +11378,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.489312905346667</v>
+        <v>1.476262189812888</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.119531628433534</v>
@@ -11731,7 +11467,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.494913650004977</v>
+        <v>1.478429984834459</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.085721990123268</v>
@@ -11820,7 +11556,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.466359520411</v>
+        <v>1.445741246095545</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.988526710507174</v>
@@ -11909,7 +11645,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.513991316435035</v>
+        <v>1.475977045098276</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.50601479415864</v>
@@ -11998,7 +11734,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.54025327928405</v>
+        <v>1.493478849608</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.484635099183801</v>
@@ -12087,7 +11823,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.559903321342392</v>
+        <v>1.511945332205774</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.779234303482312</v>
@@ -12176,7 +11912,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.573154879512383</v>
+        <v>1.521006918069784</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.687124415172457</v>
@@ -12265,7 +12001,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.558557709138333</v>
+        <v>1.507272129912302</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.652996033458443</v>
@@ -12354,7 +12090,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.557056282894616</v>
+        <v>1.50896515631387</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.770891284142258</v>
@@ -12443,7 +12179,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.564680621158702</v>
+        <v>1.523204577367673</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.617456360114523</v>
@@ -12532,7 +12268,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.591228288451226</v>
+        <v>1.543042559917072</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.536745126145808</v>
@@ -12621,7 +12357,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.609994681121863</v>
+        <v>1.560910537142189</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.765325940344682</v>
@@ -12710,7 +12446,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.595531536816209</v>
+        <v>1.549988298338894</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.634700690820976</v>
@@ -12799,7 +12535,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.57839907693547</v>
+        <v>1.539047490962749</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.786056628759764</v>
@@ -12888,7 +12624,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.578140058118905</v>
+        <v>1.535984425907464</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.652786415954107</v>
@@ -12977,7 +12713,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.566431695387549</v>
+        <v>1.534659842769503</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.771258970431454</v>
@@ -13066,7 +12802,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.557247055677206</v>
+        <v>1.524770880908984</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.562154460844235</v>
@@ -13155,7 +12891,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.537849296124728</v>
+        <v>1.514314224312124</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.222507945595099</v>
@@ -13244,7 +12980,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.535976004569737</v>
+        <v>1.515789062335017</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.288388433519226</v>
@@ -13333,7 +13069,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.53255527400989</v>
+        <v>1.517249001675158</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.283223186177736</v>
@@ -13422,7 +13158,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.540119799072284</v>
+        <v>1.520934557503669</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.253094611813933</v>
@@ -13511,7 +13247,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.517157737918501</v>
+        <v>1.496788018730357</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.238236600181696</v>
@@ -13600,7 +13336,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.535475042826018</v>
+        <v>1.513061472800278</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.205331872026848</v>
@@ -13689,7 +13425,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.519675327932155</v>
+        <v>1.500288846963076</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.282058674040303</v>
@@ -13778,7 +13514,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.490588588021802</v>
+        <v>1.467256063840986</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.237578507408104</v>
@@ -13867,7 +13603,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.473910286509656</v>
+        <v>1.45171523150673</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.159191355237443</v>
@@ -13956,7 +13692,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.45459982699463</v>
+        <v>1.430729911440858</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.240831208536984</v>
@@ -14045,7 +13781,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.460333249797821</v>
+        <v>1.436605529102468</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.195343056890053</v>
@@ -14134,7 +13870,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.464202296457356</v>
+        <v>1.437780858819599</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.322160222208109</v>
@@ -14223,7 +13959,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.450201302714157</v>
+        <v>1.426175452182515</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.162951015251131</v>
@@ -14312,7 +14048,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.453131812048174</v>
+        <v>1.42673160986751</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.282919465748904</v>
@@ -14401,7 +14137,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.466075644702352</v>
+        <v>1.435335889213807</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.191396959907079</v>
@@ -14490,7 +14226,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.518492786464031</v>
+        <v>1.483208226345381</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.313110418066217</v>
@@ -14579,7 +14315,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.513726970383287</v>
+        <v>1.481284186161801</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.521119762969825</v>
@@ -14668,7 +14404,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.514899698751853</v>
+        <v>1.482538496061979</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.398044628658479</v>
@@ -14757,7 +14493,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.516258113129495</v>
+        <v>1.478917239124816</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.583378618013864</v>
@@ -14846,7 +14582,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.539746668551602</v>
+        <v>1.503654937374444</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.457275173967448</v>
@@ -14935,7 +14671,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.544953471179568</v>
+        <v>1.514758413692966</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.617764367919544</v>
@@ -15024,7 +14760,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.554429356080843</v>
+        <v>1.521526068113674</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.585063002461526</v>
@@ -15113,7 +14849,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.586439283016921</v>
+        <v>1.558068665813232</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.36632232816906</v>
@@ -15202,7 +14938,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.578409235805506</v>
+        <v>1.551610715392541</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.393319268150521</v>
@@ -15291,7 +15027,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.60792300543425</v>
+        <v>1.580346412819755</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.664392523987622</v>
@@ -15380,7 +15116,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.607518682970293</v>
+        <v>1.580950844425427</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.529443055485284</v>
@@ -15469,7 +15205,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.580238828014</v>
+        <v>1.562479644412397</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.67431357400093</v>
@@ -15558,7 +15294,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.55502625465924</v>
+        <v>1.541851719656809</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.250905209587017</v>
@@ -15647,7 +15383,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.554739771386897</v>
+        <v>1.536125068258188</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.367130672870408</v>
@@ -15736,7 +15472,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.544361239138937</v>
+        <v>1.51869138728757</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.283334045191546</v>
@@ -15825,7 +15561,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.53350734113956</v>
+        <v>1.505828078888567</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.32458119091419</v>
@@ -15914,7 +15650,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.527957689944764</v>
+        <v>1.501046494283493</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.366982846784032</v>
@@ -16003,7 +15739,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.532122435232971</v>
+        <v>1.504445942249854</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.291083820856345</v>
@@ -16092,7 +15828,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.534146228123839</v>
+        <v>1.507784649328288</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.368665733122853</v>
@@ -16181,7 +15917,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.51665970820908</v>
+        <v>1.491856788673617</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.31460734579196</v>
@@ -16270,7 +16006,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.511326567978767</v>
+        <v>1.480702605643146</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.376106009691408</v>
@@ -16359,7 +16095,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.51504694907704</v>
+        <v>1.49008322209115</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.321922950063229</v>
@@ -16448,7 +16184,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.505237647869743</v>
+        <v>1.476136749514731</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.379093091028164</v>
@@ -16537,7 +16273,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.52655447525152</v>
+        <v>1.493705425895691</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.441571090970256</v>
@@ -16626,7 +16362,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.520940858517618</v>
+        <v>1.493029617438308</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.370447792392518</v>
@@ -16715,7 +16451,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.523122255580478</v>
+        <v>1.491094547174578</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.392676438624637</v>
@@ -16804,7 +16540,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.545888942621594</v>
+        <v>1.510507803650085</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.25586986549106</v>
@@ -16893,7 +16629,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.585468374505562</v>
+        <v>1.540628970326034</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.604210741771173</v>
@@ -16982,7 +16718,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.565135461435194</v>
+        <v>1.528075954503993</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.809120755440577</v>
@@ -17071,7 +16807,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.575064990881092</v>
+        <v>1.54607546213272</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.789157731366517</v>
@@ -17160,7 +16896,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.594907302418653</v>
+        <v>1.562427890727709</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.626805505236838</v>
@@ -17249,7 +16985,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.582690592716854</v>
+        <v>1.545036283221499</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.729355492141185</v>
@@ -17338,7 +17074,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.571724523886642</v>
+        <v>1.536459760004326</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.867083867927984</v>
@@ -17427,7 +17163,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.550630397292982</v>
+        <v>1.521197545151627</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.913969459551998</v>
@@ -17516,7 +17252,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.564823105709791</v>
+        <v>1.532143934146768</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.633299872352482</v>
@@ -17605,7 +17341,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.541081363387788</v>
+        <v>1.517185754214075</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.564876561480894</v>
@@ -17694,7 +17430,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.529679386787049</v>
+        <v>1.504215488938751</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.654516832475789</v>
@@ -17783,7 +17519,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.527622291880707</v>
+        <v>1.504673526619562</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.712126336608609</v>
@@ -17872,7 +17608,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.527748744511928</v>
+        <v>1.508176193353056</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.65557688045328</v>
@@ -17961,7 +17697,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.537288547518511</v>
+        <v>1.511159588214632</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.697466560774487</v>
@@ -18050,7 +17786,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.546465316285383</v>
+        <v>1.517653161613736</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.538200100085862</v>
@@ -18139,7 +17875,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.553615934268124</v>
+        <v>1.528344865516017</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.810821253313832</v>
@@ -18228,7 +17964,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.57275221709823</v>
+        <v>1.548511871821356</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.577671885377553</v>
@@ -18317,7 +18053,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.581699782001841</v>
+        <v>1.557501921520285</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.901518894644775</v>
@@ -18406,7 +18142,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.584315027527665</v>
+        <v>1.55894406697646</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.787192394362933</v>
@@ -18495,7 +18231,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.574730150426307</v>
+        <v>1.552239595188207</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.803921041443485</v>
@@ -18584,7 +18320,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.568258910630888</v>
+        <v>1.557370816343626</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.913658726526048</v>
@@ -18673,7 +18409,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.572484844806238</v>
+        <v>1.554945515614926</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.976964976807534</v>
@@ -18762,7 +18498,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.579402931089385</v>
+        <v>1.558274570124991</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.901045549745744</v>
@@ -18851,7 +18587,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.593924069420797</v>
+        <v>1.565080240636309</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.348185770035748</v>
@@ -19137,7 +18873,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.634513807804072</v>
+        <v>1.612718347737556</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.10233654805276</v>
@@ -19226,7 +18962,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.607549645312269</v>
+        <v>1.585423437389488</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.95686986365216</v>
@@ -19315,7 +19051,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.607154016208531</v>
+        <v>1.586817292032614</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.147781645517208</v>
@@ -19404,7 +19140,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.621751642954952</v>
+        <v>1.600383176355064</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.193790057937731</v>
@@ -19493,7 +19229,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.626311244359627</v>
+        <v>1.601682886151212</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.999984252244825</v>
@@ -19582,7 +19318,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.62996055739428</v>
+        <v>1.606625751475067</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.861560910838943</v>
@@ -19671,7 +19407,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.631246774923332</v>
+        <v>1.608854964479667</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.253706706197875</v>
@@ -19760,7 +19496,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.634704112632158</v>
+        <v>1.613716481951837</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.367172857135614</v>
@@ -19849,7 +19585,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.644391385276109</v>
+        <v>1.620179290125499</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.236772517634753</v>
@@ -19938,7 +19674,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.652911147712362</v>
+        <v>1.626521295898939</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.0623865662577</v>
@@ -20027,7 +19763,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.641035245163583</v>
+        <v>1.612770632675991</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.016920818743982</v>
@@ -20116,7 +19852,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.62655639734552</v>
+        <v>1.597004711219846</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.233244642514146</v>
@@ -20205,7 +19941,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.626164355524911</v>
+        <v>1.593882423679264</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.115436482102205</v>
@@ -20294,7 +20030,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.637459021046439</v>
+        <v>1.607976183846311</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.224157043197589</v>
@@ -20383,7 +20119,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.644938097732281</v>
+        <v>1.616374160699231</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.262939835031669</v>
@@ -20472,7 +20208,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.639730890940077</v>
+        <v>1.615457810042891</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.288530018657326</v>
@@ -20561,7 +20297,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.635707113608621</v>
+        <v>1.613116887255049</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.038516532396328</v>
@@ -20650,7 +20386,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.637210442687884</v>
+        <v>1.613261878629077</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.261124658061381</v>
@@ -20739,7 +20475,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.626945850579241</v>
+        <v>1.608614440543128</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.209750589010886</v>
@@ -20828,7 +20564,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.618273812253313</v>
+        <v>1.600501222997513</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.968176528087798</v>
@@ -20917,7 +20653,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.611367755263967</v>
+        <v>1.594850720528432</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.142597435217874</v>
@@ -21006,7 +20742,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.580577185685304</v>
+        <v>1.568591639472112</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.770924214445356</v>
@@ -21095,7 +20831,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.564659248461036</v>
+        <v>1.553797390706391</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.886918797753591</v>
@@ -21184,7 +20920,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.555674304935264</v>
+        <v>1.54639196724506</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.815599191186171</v>
@@ -21273,7 +21009,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.515778117521095</v>
+        <v>1.514625881085566</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.53591263431172</v>
@@ -21362,7 +21098,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.5242383385639</v>
+        <v>1.526804134871027</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.59816015754042</v>
@@ -21451,7 +21187,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.511270037975435</v>
+        <v>1.513339947211846</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.711044944008481</v>
@@ -21540,7 +21276,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.520730245925256</v>
+        <v>1.521495267808619</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.660022662945652</v>
@@ -21629,7 +21365,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.517725836913449</v>
+        <v>1.518356904790631</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.517025458517433</v>
@@ -21718,7 +21454,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.514799350708684</v>
+        <v>1.514668999048289</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.598589096300394</v>
@@ -21807,7 +21543,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.519489488410229</v>
+        <v>1.51851648208094</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.664177394610319</v>
@@ -21896,7 +21632,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.51636387502878</v>
+        <v>1.510171809632681</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.508603292290203</v>
@@ -21985,7 +21721,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.524961112265714</v>
+        <v>1.520533759585751</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.71745372606274</v>
@@ -22074,7 +21810,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.486533188421697</v>
+        <v>1.475461712376559</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.160966710989556</v>
@@ -22163,7 +21899,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.471203590882388</v>
+        <v>1.473344495796356</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.122408631744682</v>
@@ -22252,7 +21988,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.479732585447648</v>
+        <v>1.483716761475844</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.035359562972794</v>
@@ -22341,7 +22077,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.490164619011162</v>
+        <v>1.493269388796128</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.120014362697707</v>
@@ -22430,7 +22166,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.495954821041147</v>
+        <v>1.502120551883331</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.117232467481971</v>
@@ -22519,7 +22255,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.507709544718086</v>
+        <v>1.513536795821141</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.074722962967898</v>
@@ -22608,7 +22344,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.536960048306172</v>
+        <v>1.539232306260476</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.092220673985603</v>
@@ -22697,7 +22433,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.531651053612565</v>
+        <v>1.531779148163531</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.163258035200725</v>
@@ -22786,7 +22522,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.538683210072522</v>
+        <v>1.544489531765956</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.168294618978948</v>
@@ -22875,7 +22611,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.538701695839045</v>
+        <v>1.550272691949404</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.159856496928839</v>
@@ -22964,7 +22700,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.532042842188461</v>
+        <v>1.544557059839492</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.185089191054839</v>
@@ -23053,7 +22789,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.533260132361143</v>
+        <v>1.546535802771081</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.074942200792111</v>
@@ -23142,7 +22878,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.528769235466045</v>
+        <v>1.542703630063795</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.156127237788363</v>
@@ -23231,7 +22967,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.532269152790623</v>
+        <v>1.554315592592823</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.177937583932285</v>
@@ -23320,7 +23056,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.529097206767593</v>
+        <v>1.550364997811949</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.121504979938289</v>
@@ -23409,7 +23145,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.59238969239683</v>
+        <v>1.614462824761829</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.694943723700721</v>
@@ -23498,7 +23234,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.603930155410239</v>
+        <v>1.621103516504356</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.293733002082468</v>
@@ -23587,7 +23323,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.613397667686087</v>
+        <v>1.630285883260549</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.707616424473464</v>
@@ -23676,7 +23412,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.614336655980781</v>
+        <v>1.624800534935442</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.460071081842429</v>
@@ -23765,7 +23501,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.614807455807395</v>
+        <v>1.624383928978707</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.261072985383683</v>
@@ -23854,7 +23590,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.591897407654263</v>
+        <v>1.604459801878973</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.016282892732619</v>
@@ -23943,7 +23679,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.597045705232262</v>
+        <v>1.60691252843713</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.534266917386678</v>
@@ -24032,7 +23768,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.600169055156256</v>
+        <v>1.606922123626042</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.866761492166445</v>
@@ -24121,7 +23857,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.600065518249408</v>
+        <v>1.605185912179251</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.979232095585223</v>
@@ -24210,7 +23946,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.598357895134408</v>
+        <v>1.598674173285766</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.322070454447291</v>
@@ -24299,7 +24035,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.606069368099275</v>
+        <v>1.60400107592574</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.233047758538057</v>
@@ -24388,7 +24124,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.606220921545236</v>
+        <v>1.60442693162384</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.273846384481706</v>
@@ -24477,7 +24213,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.609469863397208</v>
+        <v>1.607626309425008</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.910460335299041</v>
@@ -24566,7 +24302,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.606337873432159</v>
+        <v>1.602695874226966</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.259622514439275</v>
@@ -24655,7 +24391,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.606566982385412</v>
+        <v>1.598550247478232</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.948163272913008</v>
@@ -24744,7 +24480,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.601681293983293</v>
+        <v>1.598938251675178</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.889763081206949</v>
@@ -24833,7 +24569,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.600832043234865</v>
+        <v>1.599015137980857</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.80166290041216</v>
@@ -24922,7 +24658,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.575958092515197</v>
+        <v>1.576949925033498</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.873518563750873</v>
@@ -25011,7 +24747,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.577452555579143</v>
+        <v>1.578599057031052</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.184417464336063</v>
@@ -25100,7 +24836,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.582949764520208</v>
+        <v>1.581093223842785</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.156441273217514</v>
@@ -25189,7 +24925,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.580355514853647</v>
+        <v>1.575402808221026</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.434581183809483</v>
@@ -25278,7 +25014,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.565483369545044</v>
+        <v>1.566224880372981</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.078587421153288</v>
@@ -25367,7 +25103,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.565468030797995</v>
+        <v>1.570363743017784</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.061347486156282</v>
@@ -25456,7 +25192,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.555175048259557</v>
+        <v>1.564158268745065</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.405011890782913</v>
@@ -25545,7 +25281,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.558711506280775</v>
+        <v>1.572454135062481</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.101924593630331</v>
@@ -25634,7 +25370,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.559982727254999</v>
+        <v>1.574851329013187</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.045644209377925</v>
@@ -25723,7 +25459,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.557171678411405</v>
+        <v>1.570338909051052</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.765305310987805</v>
@@ -25812,7 +25548,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.510143060126505</v>
+        <v>1.528106088718158</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.375561652863144</v>
@@ -25901,7 +25637,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.508526780904715</v>
+        <v>1.526418197929193</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.302081422098276</v>
@@ -25990,7 +25726,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.515122451852472</v>
+        <v>1.534339188038989</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.259703567386243</v>
@@ -26079,7 +25815,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.519756915467045</v>
+        <v>1.537754379105713</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.376827102780618</v>
@@ -26168,7 +25904,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.52718646544175</v>
+        <v>1.541460450866906</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.295045374151552</v>
@@ -26257,7 +25993,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.525117822078915</v>
+        <v>1.538654849606376</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.381178400925023</v>
@@ -26346,7 +26082,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.493070931986864</v>
+        <v>1.51000805154607</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.300168633888846</v>
@@ -26435,7 +26171,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.44838737388231</v>
+        <v>1.460540337072562</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.379280910534884</v>
@@ -26524,7 +26260,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.419361281683111</v>
+        <v>1.43279213024956</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.41949827112679</v>
@@ -26613,7 +26349,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.399195811153892</v>
+        <v>1.411294319331551</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.402261035145234</v>
@@ -26702,7 +26438,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.381153762882941</v>
+        <v>1.393916559217241</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.388493139035492</v>
@@ -26791,7 +26527,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.375688625956103</v>
+        <v>1.387179028988009</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.264999479109084</v>
@@ -27077,7 +26813,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.626389095444304</v>
+        <v>1.567554435200876</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.716226394460075</v>
@@ -27166,7 +26902,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.605565901845836</v>
+        <v>1.538566569095834</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.089461180383203</v>
@@ -27255,7 +26991,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.607061951637233</v>
+        <v>1.532390233182025</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.333689602559222</v>
@@ -27344,7 +27080,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.613008163875579</v>
+        <v>1.53768676366782</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.588842265708682</v>
@@ -27433,7 +27169,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.626305726543235</v>
+        <v>1.539772616737933</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.517027653031411</v>
@@ -27522,7 +27258,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.626430070643535</v>
+        <v>1.533467686605192</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.268592048850166</v>
@@ -27611,7 +27347,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.636358972699625</v>
+        <v>1.534073559972576</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.363841844167696</v>
@@ -27700,7 +27436,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.642903301641347</v>
+        <v>1.530385451832721</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.289077018251417</v>
@@ -27789,7 +27525,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.639854005052806</v>
+        <v>1.517357257983319</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.318063549506424</v>
@@ -27878,7 +27614,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.637364905451686</v>
+        <v>1.516183655665601</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.41619254249805</v>
@@ -27967,7 +27703,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.640769951740001</v>
+        <v>1.518053774617879</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.451906806396817</v>
@@ -28056,7 +27792,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.639577309511968</v>
+        <v>1.513317361268866</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.029672334867055</v>
@@ -28145,7 +27881,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.609511363171059</v>
+        <v>1.49389582262341</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.726738468630183</v>
@@ -28234,7 +27970,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.613802082853695</v>
+        <v>1.49425869151812</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.751669648957612</v>
@@ -28323,7 +28059,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.619408155162641</v>
+        <v>1.501171757037877</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.803644814871519</v>
@@ -28412,7 +28148,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.612999113907993</v>
+        <v>1.501297902660574</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.960342608045024</v>
@@ -28501,7 +28237,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.60612815015322</v>
+        <v>1.495828359046611</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.768470420079426</v>
@@ -28590,7 +28326,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.599292874316089</v>
+        <v>1.493924829168119</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.789709418273616</v>
@@ -28679,7 +28415,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.583314645499622</v>
+        <v>1.48232797864951</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.622970448535873</v>
@@ -28768,7 +28504,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.572868809814914</v>
+        <v>1.476499397682158</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.846853073716684</v>
@@ -28857,7 +28593,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.55789612520246</v>
+        <v>1.470360018026702</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.750158931757149</v>
@@ -28946,7 +28682,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.553128606275867</v>
+        <v>1.470526457331274</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.936708852597275</v>
@@ -29035,7 +28771,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.543541866157695</v>
+        <v>1.467797128931974</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.935009355906661</v>
@@ -29124,7 +28860,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.541780794428842</v>
+        <v>1.469260791616257</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.924775708193566</v>
@@ -29213,7 +28949,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.528212993989315</v>
+        <v>1.460592316259824</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.815197736197657</v>
@@ -29302,7 +29038,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.524657606944683</v>
+        <v>1.461816527997688</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.882768184111926</v>
@@ -29391,7 +29127,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.5317809558485</v>
+        <v>1.469867950034547</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.763860092929674</v>
@@ -29480,7 +29216,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.547208499312485</v>
+        <v>1.482423978101646</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.674212017645081</v>
@@ -29569,7 +29305,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.552366871421526</v>
+        <v>1.490040652404131</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.153126321083474</v>
@@ -29658,7 +29394,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.548688084173126</v>
+        <v>1.487931139641757</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.785374751343174</v>
@@ -29747,7 +29483,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.562793710594503</v>
+        <v>1.494670977878219</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.933360506507597</v>
@@ -29836,7 +29572,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.54993630048913</v>
+        <v>1.484102223201553</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.280250886719602</v>
@@ -29925,7 +29661,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.557781594941813</v>
+        <v>1.494427043782045</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.29805218019615</v>
@@ -30014,7 +29750,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.538258616706153</v>
+        <v>1.483651738481529</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.649434454785176</v>
@@ -30103,7 +29839,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.51497321523948</v>
+        <v>1.469292992173109</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.478310969901881</v>
@@ -30192,7 +29928,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.530192502177964</v>
+        <v>1.481609923835318</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.606300449845102</v>
@@ -30281,7 +30017,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.531242893993499</v>
+        <v>1.484681582732485</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.454455206453793</v>
@@ -30370,7 +30106,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.53024993121531</v>
+        <v>1.485234436296829</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.576047698706391</v>
@@ -30459,7 +30195,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.530187243691361</v>
+        <v>1.488715591231407</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.560371448591197</v>
@@ -30548,7 +30284,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.542123903701623</v>
+        <v>1.496257238358303</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.535151096564881</v>
@@ -30637,7 +30373,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.544654089166276</v>
+        <v>1.496483778415016</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.598987585611987</v>
@@ -30726,7 +30462,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.539843151913531</v>
+        <v>1.496252715528496</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.682412360843695</v>
@@ -30815,7 +30551,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.545569154855875</v>
+        <v>1.499371301894354</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.581964190537276</v>
@@ -30904,7 +30640,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.522337881873935</v>
+        <v>1.478532631236139</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.696814647528824</v>
@@ -30993,7 +30729,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.526293619294996</v>
+        <v>1.491906684065081</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.678265142834677</v>
@@ -31082,7 +30818,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.527229007033099</v>
+        <v>1.498242846090361</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.601651803421231</v>
@@ -31171,7 +30907,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.533863928733829</v>
+        <v>1.510449627779066</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.632880823616558</v>
@@ -31260,7 +30996,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.535000827557321</v>
+        <v>1.512916889711358</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.619706617558514</v>
@@ -31349,7 +31085,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.553559427948147</v>
+        <v>1.525095386492488</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.728159960643641</v>
@@ -31438,7 +31174,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.573127904597434</v>
+        <v>1.539644325021159</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.826612134094625</v>
@@ -31527,7 +31263,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.571566776108935</v>
+        <v>1.531956393383585</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.738165587922857</v>
@@ -31616,7 +31352,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.565350917068534</v>
+        <v>1.520193650707633</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.818876290881676</v>
@@ -31705,7 +31441,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.565904584667981</v>
+        <v>1.513755333809617</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.495397218922849</v>
@@ -31794,7 +31530,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.541349288337262</v>
+        <v>1.497683325812978</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.662184081166776</v>
@@ -31883,7 +31619,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.544195676747548</v>
+        <v>1.494086236355215</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.697611580089702</v>
@@ -31972,7 +31708,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.543504427154998</v>
+        <v>1.492486933296968</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.5072656912424</v>
@@ -32061,7 +31797,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.540757363909276</v>
+        <v>1.482397006093347</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.490459772377701</v>
@@ -32150,7 +31886,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.545182394577961</v>
+        <v>1.483544147000307</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.38831393433379</v>
@@ -32239,7 +31975,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.563421846168683</v>
+        <v>1.50017233433359</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.549147813415534</v>
@@ -32328,7 +32064,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.559596850964424</v>
+        <v>1.486212015362807</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.633702312610256</v>
@@ -32417,7 +32153,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.555759536250155</v>
+        <v>1.480506223081916</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.47609886722574</v>
@@ -32506,7 +32242,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.549986898300991</v>
+        <v>1.472540051605476</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.505776776606172</v>
@@ -32595,7 +32331,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.556079524645396</v>
+        <v>1.478117897702641</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.520644283488062</v>
@@ -32684,7 +32420,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.57358521407784</v>
+        <v>1.489783651688784</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.636681351580482</v>
@@ -32773,7 +32509,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.579125732260359</v>
+        <v>1.499118157674125</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.806848837220494</v>
@@ -32862,7 +32598,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.553916873437751</v>
+        <v>1.486251481469095</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.546655918357676</v>
@@ -32951,7 +32687,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.55835275528374</v>
+        <v>1.493112018434627</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.45383416867459</v>
@@ -33040,7 +32776,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.579141750025293</v>
+        <v>1.512458250284374</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.366041612489759</v>
@@ -33129,7 +32865,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.585226744146352</v>
+        <v>1.505786131916479</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.63634236111819</v>
@@ -33218,7 +32954,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.587393620037775</v>
+        <v>1.516313537773686</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.885347902712849</v>
@@ -33307,7 +33043,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.568816044899183</v>
+        <v>1.499501312457223</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.628627686733119</v>
@@ -33396,7 +33132,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.564490626339275</v>
+        <v>1.49751810402939</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.987346253983341</v>
@@ -33485,7 +33221,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.546346088760589</v>
+        <v>1.488972019832012</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.810354042887683</v>
@@ -33574,7 +33310,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.5193861100529</v>
+        <v>1.466740348265194</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.621185381341054</v>
@@ -33663,7 +33399,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.511080277200897</v>
+        <v>1.466631743964131</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.728830522292011</v>
@@ -33752,7 +33488,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.506003163844107</v>
+        <v>1.464237809482622</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.581937399213617</v>
@@ -33841,7 +33577,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.514082353252695</v>
+        <v>1.472498818594502</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.70717847578361</v>
@@ -33930,7 +33666,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.504126859123437</v>
+        <v>1.466069621665273</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.790359357651971</v>
@@ -34019,7 +33755,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.501280346828662</v>
+        <v>1.460929991427269</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.613923434379581</v>
@@ -34108,7 +33844,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.51376168750157</v>
+        <v>1.473031945342178</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.401977063387156</v>
@@ -34197,7 +33933,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.51680420141467</v>
+        <v>1.472321377816649</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.765559792356939</v>
@@ -34286,7 +34022,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.498696099741849</v>
+        <v>1.461825913371247</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.672594497036828</v>
@@ -34375,7 +34111,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.468282707799974</v>
+        <v>1.435743053911964</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.847106927085383</v>
@@ -34464,7 +34200,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.461514130353531</v>
+        <v>1.442308105906153</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.667697572869437</v>
@@ -34553,7 +34289,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.452034995402592</v>
+        <v>1.43008308608012</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.46291944542212</v>
@@ -34642,7 +34378,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.451798188778685</v>
+        <v>1.428646353831252</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.805479365735665</v>
@@ -34731,7 +34467,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.450856748339926</v>
+        <v>1.432026758015517</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.35815955611176</v>
@@ -35017,7 +34753,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.415908123565813</v>
+        <v>1.386209330022921</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.392319298407468</v>
@@ -35106,7 +34842,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.415543781171602</v>
+        <v>1.382526464462828</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.354238912894888</v>
@@ -35195,7 +34931,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.432610869408821</v>
+        <v>1.38946944981052</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.038829629204526</v>
@@ -35284,7 +35020,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.419241670705365</v>
+        <v>1.392772050177477</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.246319402858954</v>
@@ -35373,7 +35109,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.405729850795974</v>
+        <v>1.385677615933863</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.240015365382837</v>
@@ -35462,7 +35198,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.39518922421496</v>
+        <v>1.37446604882282</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.415333018846147</v>
@@ -35551,7 +35287,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.383252813108733</v>
+        <v>1.371350735875972</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.377022081255404</v>
@@ -35640,7 +35376,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.410142323486875</v>
+        <v>1.396263123736489</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.281698234093672</v>
@@ -35729,7 +35465,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.387673150176708</v>
+        <v>1.373104478880031</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.32650038634192</v>
@@ -35818,7 +35554,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.369957143094595</v>
+        <v>1.361639939735022</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.348962796767865</v>
@@ -35907,7 +35643,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.396654466159148</v>
+        <v>1.380214053080369</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.010819012678757</v>
@@ -35996,7 +35732,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.397467258507894</v>
+        <v>1.373033113911039</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.357961997510543</v>
@@ -36085,7 +35821,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.28529446838629</v>
+        <v>1.26448492324362</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.577469318573192</v>
@@ -36174,7 +35910,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.276028317513374</v>
+        <v>1.265078621590282</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.550680811160585</v>
@@ -36263,7 +35999,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.281000666022673</v>
+        <v>1.272160838991764</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.583001680938783</v>
@@ -36352,7 +36088,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.280360478455967</v>
+        <v>1.274527076205818</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.588682095936758</v>
@@ -36441,7 +36177,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.272569279379104</v>
+        <v>1.268430212858971</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.5838603485889</v>
@@ -36530,7 +36266,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.280885387780608</v>
+        <v>1.276191658217698</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.549424185753761</v>
@@ -36619,7 +36355,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.277188676924215</v>
+        <v>1.267030072861937</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.590405553778668</v>
@@ -36708,7 +36444,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.27784089502914</v>
+        <v>1.267853938728265</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.586856483061423</v>
@@ -36797,7 +36533,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.287310101768908</v>
+        <v>1.275182938546575</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.553862229848205</v>
@@ -36886,7 +36622,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.286759775448998</v>
+        <v>1.271962396763066</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.578989138116163</v>
@@ -36975,7 +36711,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.286536517103943</v>
+        <v>1.274193218760729</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.583401503306226</v>
@@ -37064,7 +36800,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.292219846513018</v>
+        <v>1.276983972770301</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.598054898096855</v>
@@ -37153,7 +36889,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.29851732608565</v>
+        <v>1.285866934587883</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.590710374117705</v>
@@ -37242,7 +36978,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.295687692700893</v>
+        <v>1.285333093781462</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.586222569750534</v>
@@ -37331,7 +37067,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.307805758654125</v>
+        <v>1.297865846951495</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.623619349814676</v>
@@ -37420,7 +37156,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.432909789514051</v>
+        <v>1.418492858016082</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.923047435579682</v>
@@ -37509,7 +37245,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.4705171909943</v>
+        <v>1.446446286485793</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.459626149064915</v>
@@ -37598,7 +37334,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.469513735682896</v>
+        <v>1.43862484587189</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.455489821629899</v>
@@ -37687,7 +37423,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.470625070590829</v>
+        <v>1.4377754051301</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.143307054427606</v>
@@ -37776,7 +37512,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.473124151859293</v>
+        <v>1.442067506920349</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.338830192411087</v>
@@ -37865,7 +37601,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.484165671466565</v>
+        <v>1.445070749555629</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.392982797353507</v>
@@ -37954,7 +37690,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.473852791511673</v>
+        <v>1.435058798182254</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.236480492929739</v>
@@ -38043,7 +37779,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.317617587922548</v>
+        <v>1.298302783631544</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.560243597055864</v>
@@ -38132,7 +37868,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.31821403639077</v>
+        <v>1.30154927970097</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.565008853607077</v>
@@ -38221,7 +37957,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.322042352281562</v>
+        <v>1.306741282613239</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.565730441088728</v>
@@ -38310,7 +38046,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.323164237995003</v>
+        <v>1.306060223969126</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.554600304735609</v>
@@ -38399,7 +38135,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.328797240086723</v>
+        <v>1.312802830094478</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.562251544725599</v>
@@ -38488,7 +38224,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.322838904344207</v>
+        <v>1.302251864359756</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.561411929187604</v>
@@ -38577,7 +38313,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.321183840899438</v>
+        <v>1.303883373486832</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.558849873282433</v>
@@ -38666,7 +38402,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.324395160324663</v>
+        <v>1.306425115759495</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.555789712356624</v>
@@ -38755,7 +38491,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.316210985585028</v>
+        <v>1.299540302327946</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.560734789787402</v>
@@ -38844,7 +38580,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.260073133013387</v>
+        <v>1.244341373493119</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.612234171684989</v>
@@ -38933,7 +38669,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.260287812143741</v>
+        <v>1.246925355783118</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.612553607000376</v>
@@ -39022,7 +38758,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.25260899209062</v>
+        <v>1.240168911129942</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.623413471221911</v>
@@ -39111,7 +38847,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.25475794278492</v>
+        <v>1.242014558856826</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.610267726790844</v>
@@ -39200,7 +38936,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.261506153646182</v>
+        <v>1.246388989983596</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.6034315239201</v>
@@ -39289,7 +39025,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.268719203310623</v>
+        <v>1.256156366173781</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.543517429726389</v>
@@ -39378,7 +39114,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.356251299833197</v>
+        <v>1.344443336818265</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.590203504505993</v>
@@ -39467,7 +39203,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.364399039909029</v>
+        <v>1.351016469195265</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.627353960377927</v>
@@ -39556,7 +39292,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.364791921637236</v>
+        <v>1.349968630363879</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.639173793406905</v>
@@ -39645,7 +39381,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.372584153744104</v>
+        <v>1.361961427880289</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.621521844240378</v>
@@ -39734,7 +39470,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.261573815563298</v>
+        <v>1.249604384614347</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.623332933465879</v>
@@ -39823,7 +39559,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.259583341833827</v>
+        <v>1.248024118912238</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.634930684002954</v>
@@ -39912,7 +39648,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.259913505219391</v>
+        <v>1.246955470463156</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.629210215686152</v>
@@ -40001,7 +39737,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.258807457911942</v>
+        <v>1.247819249500575</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.648673439413734</v>
@@ -40090,7 +39826,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.254251930564128</v>
+        <v>1.24354998388901</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.604124509694308</v>
@@ -40179,7 +39915,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.303229947973931</v>
+        <v>1.294417911130373</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.594167308613399</v>
@@ -40268,7 +40004,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.310025737705873</v>
+        <v>1.295592888736394</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.593577788225168</v>
@@ -40357,7 +40093,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.308438889459748</v>
+        <v>1.286237831886988</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.601592556797567</v>
@@ -40446,7 +40182,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.300099863250598</v>
+        <v>1.282836460850926</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.598432244939832</v>
@@ -40535,7 +40271,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.295801766608788</v>
+        <v>1.279693162641091</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.605534242076931</v>
@@ -40624,7 +40360,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.295697168232714</v>
+        <v>1.27706778818629</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.599345030133686</v>
@@ -40713,7 +40449,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.325961569651743</v>
+        <v>1.307856087101205</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.64347806705436</v>
@@ -40802,7 +40538,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.226435998940545</v>
+        <v>1.20722027565241</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.666576226891407</v>
@@ -40891,7 +40627,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.228696285026838</v>
+        <v>1.205036799588171</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.666962848737372</v>
@@ -40980,7 +40716,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.257505558473961</v>
+        <v>1.237122142446703</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.496231753507982</v>
@@ -41069,7 +40805,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.284650510238745</v>
+        <v>1.262063147806837</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.636434028070011</v>
@@ -41158,7 +40894,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.302325902772695</v>
+        <v>1.273957088701043</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.624739998124959</v>
@@ -41247,7 +40983,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.28052535197827</v>
+        <v>1.259614155681986</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.634909575508828</v>
@@ -41336,7 +41072,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.289736685684164</v>
+        <v>1.264967801464151</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.640344450101788</v>
@@ -41425,7 +41161,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.260868513267667</v>
+        <v>1.236384632129705</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.656682823448393</v>
@@ -41514,7 +41250,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.220868091432686</v>
+        <v>1.194020092259799</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.707893524890543</v>
@@ -41603,7 +41339,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.200355518699016</v>
+        <v>1.183023992236441</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.717725379751231</v>
@@ -41692,7 +41428,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.201090360679846</v>
+        <v>1.185160430804094</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.737573106762501</v>
@@ -41781,7 +41517,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.196711849815008</v>
+        <v>1.183694703102843</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.712381750017597</v>
@@ -41870,7 +41606,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.196022607563118</v>
+        <v>1.185447616185475</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.7191605256601</v>
@@ -41959,7 +41695,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.192323238239988</v>
+        <v>1.182045358106545</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.707502682802564</v>
@@ -42048,7 +41784,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.217860701728664</v>
+        <v>1.210153348563551</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.505350064475987</v>
@@ -42137,7 +41873,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.245394823738752</v>
+        <v>1.229204350909943</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.67823522680868</v>
@@ -42226,7 +41962,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.23800319462676</v>
+        <v>1.234428878900625</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>1.659411012540032</v>
@@ -42315,7 +42051,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.224327534357009</v>
+        <v>1.215957715519735</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>1.678716960678811</v>
@@ -42404,7 +42140,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.194755775329104</v>
+        <v>1.186570917407573</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>1.703197892155546</v>
@@ -42493,7 +42229,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.190358769761429</v>
+        <v>1.182604401992831</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>1.639264717436726</v>
@@ -42582,7 +42318,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.19364876695843</v>
+        <v>1.185930587747297</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>1.679931380676216</v>
@@ -42671,7 +42407,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.201178515641458</v>
+        <v>1.193798959373146</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>1.593976940675707</v>
@@ -42957,7 +42693,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.337813663959177</v>
+        <v>1.334376426085774</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.163977789563621</v>
@@ -43046,7 +42782,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.317345761735122</v>
+        <v>1.312555940502905</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.163689852641073</v>
@@ -43135,7 +42871,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.301826922565139</v>
+        <v>1.298756487646486</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.160312905869801</v>
@@ -43224,7 +42960,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.319324142246227</v>
+        <v>1.314205066250445</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.085071168992477</v>
@@ -43313,7 +43049,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.316517214656242</v>
+        <v>1.314131489877018</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.025439927323697</v>
@@ -43402,7 +43138,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.310315877742474</v>
+        <v>1.310248799043092</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.148558942955627</v>
@@ -43491,7 +43227,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.318026407267106</v>
+        <v>1.317854664577803</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.086505339841427</v>
@@ -43580,7 +43316,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.317673930145296</v>
+        <v>1.321352447817259</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.97394929120227</v>
@@ -43669,7 +43405,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.3040682151788</v>
+        <v>1.308382201563977</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.140108922846931</v>
@@ -43758,7 +43494,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.300850606780386</v>
+        <v>1.303152138448051</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.123690548759679</v>
@@ -43847,7 +43583,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.303840760352547</v>
+        <v>1.310478668365131</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.063463017407069</v>
@@ -43936,7 +43672,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.310254371116329</v>
+        <v>1.315927470265116</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.972981262458581</v>
@@ -44025,7 +43761,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.301542912612223</v>
+        <v>1.309887609185135</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.15060840833764</v>
@@ -44114,7 +43850,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.328672642169081</v>
+        <v>1.340183586740982</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.466592623230331</v>
@@ -44203,7 +43939,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.340357856089247</v>
+        <v>1.349873026190097</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.184042564876214</v>
@@ -44292,7 +44028,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.351842434390437</v>
+        <v>1.358296962834558</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.23501826522243</v>
@@ -44381,7 +44117,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.369571583844532</v>
+        <v>1.377581089142269</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.351775321878559</v>
@@ -44470,7 +44206,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.390508164114641</v>
+        <v>1.397955812987322</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.003242370176267</v>
@@ -44559,7 +44295,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.336226726027601</v>
+        <v>1.345660092262458</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.941429097346319</v>
@@ -44648,7 +44384,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.3301819675735</v>
+        <v>1.32967408194595</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.000902785839342</v>
@@ -44737,7 +44473,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.304023618848219</v>
+        <v>1.31189885968746</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.975051416761395</v>
@@ -44826,7 +44562,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.287030649997399</v>
+        <v>1.292216594197024</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.988087145813457</v>
@@ -44915,7 +44651,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.281028436825269</v>
+        <v>1.288296467961881</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.987407976085324</v>
@@ -45004,7 +44740,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.29092021176085</v>
+        <v>1.295820114441117</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.985856542409938</v>
@@ -45093,7 +44829,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.289772417604226</v>
+        <v>1.294934829544397</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.983319467279243</v>
@@ -45182,7 +44918,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.29202338278219</v>
+        <v>1.295846943629731</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.011810364527719</v>
@@ -45271,7 +45007,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.296016547235297</v>
+        <v>1.299787529237975</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.988845170296557</v>
@@ -45360,7 +45096,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.305755320851117</v>
+        <v>1.308776524024184</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.057682191256146</v>
@@ -45449,7 +45185,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.303208218175648</v>
+        <v>1.305890230033496</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.044534904332662</v>
@@ -45538,7 +45274,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.295927997313838</v>
+        <v>1.295838649654476</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.040795976751227</v>
@@ -45627,7 +45363,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.295523057428078</v>
+        <v>1.296647054105892</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.988981197900138</v>
@@ -45716,7 +45452,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.265311967493586</v>
+        <v>1.261147238374201</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.041198060777224</v>
@@ -45805,7 +45541,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.274651980499856</v>
+        <v>1.271880871055645</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.037452488504453</v>
@@ -45894,7 +45630,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.256234479495956</v>
+        <v>1.253729128352893</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.103630049702567</v>
@@ -45983,7 +45719,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.263522831418196</v>
+        <v>1.259261069099094</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.863189465581054</v>
@@ -46072,7 +45808,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.274852751416069</v>
+        <v>1.273286525402661</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.12629149629594</v>
@@ -46161,7 +45897,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.288972344210644</v>
+        <v>1.287638533083649</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.095317366340606</v>
@@ -46250,7 +45986,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.297717796072611</v>
+        <v>1.294204672693658</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.137830407114147</v>
@@ -46339,7 +46075,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.31105001518019</v>
+        <v>1.307221340121966</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.10847730254089</v>
@@ -46428,7 +46164,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.305573148093877</v>
+        <v>1.306903999451391</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.116516312712168</v>
@@ -46517,7 +46253,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.300233640682089</v>
+        <v>1.300826026146432</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.012006238886114</v>
@@ -46606,7 +46342,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.297202024346445</v>
+        <v>1.299627427342588</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.053388155224757</v>
@@ -46695,7 +46431,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.298420274690141</v>
+        <v>1.30208442616879</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.08807362535426</v>
@@ -46784,7 +46520,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.293414921547834</v>
+        <v>1.299762555462895</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.019525873034355</v>
@@ -46873,7 +46609,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.292606221648537</v>
+        <v>1.299598770540263</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.099769311313731</v>
@@ -46962,7 +46698,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.276178897472122</v>
+        <v>1.285006670788623</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.030769873455187</v>
@@ -47051,7 +46787,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.289935654600282</v>
+        <v>1.295000343857333</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.977331963669105</v>
@@ -47140,7 +46876,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.305525923756977</v>
+        <v>1.310726599456284</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.127447345968829</v>
@@ -47229,7 +46965,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.296983422887994</v>
+        <v>1.306698484517704</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.122987101155702</v>
@@ -47318,7 +47054,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.307651040272994</v>
+        <v>1.316391705000227</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.133664394049986</v>
@@ -47407,7 +47143,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.313578147192248</v>
+        <v>1.319075634540804</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.049855221440205</v>
@@ -47496,7 +47232,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.318660043989239</v>
+        <v>1.322683155303344</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.042621535913869</v>
@@ -47585,7 +47321,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.320621257268046</v>
+        <v>1.326985537047836</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.115572241564021</v>
@@ -47674,7 +47410,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.312933291546126</v>
+        <v>1.317119912173707</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.990007005895076</v>
@@ -47763,7 +47499,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.309954290820642</v>
+        <v>1.315463356895337</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.188618269329145</v>
@@ -47852,7 +47588,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.320310988116696</v>
+        <v>1.323462671937665</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.045394916673573</v>
@@ -47941,7 +47677,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.320250300864757</v>
+        <v>1.322963181474988</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.039422609118888</v>
@@ -48030,7 +47766,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.316213754267141</v>
+        <v>1.319117274192403</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.108240628219062</v>
@@ -48119,7 +47855,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.322746974781533</v>
+        <v>1.323094022245368</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.064348641540426</v>
@@ -48208,7 +47944,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.336616723731307</v>
+        <v>1.33595746967061</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.043007598592089</v>
@@ -48297,7 +48033,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.35755195230399</v>
+        <v>1.355740160492751</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.139575639957864</v>
@@ -48386,7 +48122,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.389792910193958</v>
+        <v>1.387890852395792</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.044812202987153</v>
@@ -48475,7 +48211,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.398595604553184</v>
+        <v>1.396790161732542</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.960731147717786</v>
@@ -48564,7 +48300,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.424336700916143</v>
+        <v>1.423036755716801</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.551050757169827</v>
@@ -48653,7 +48389,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.449507718834857</v>
+        <v>1.446955170821844</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.780740226989611</v>
@@ -48742,7 +48478,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.432952974212876</v>
+        <v>1.431421560979607</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.684973071847253</v>
@@ -48831,7 +48567,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.433603825930792</v>
+        <v>1.432240045763715</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.81666379719936</v>
@@ -48920,7 +48656,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.427077600976937</v>
+        <v>1.429611029984179</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.357737498125996</v>
@@ -49009,7 +48745,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.423581557769049</v>
+        <v>1.422665299016239</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.527834729587337</v>
@@ -49098,7 +48834,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.411434107939938</v>
+        <v>1.413022584600613</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.682510060474278</v>
@@ -49187,7 +48923,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.381173147081216</v>
+        <v>1.385930679254278</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.301611645207049</v>
@@ -49276,7 +49012,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.383873961626351</v>
+        <v>1.36325943747858</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.031345037602232</v>
@@ -49365,7 +49101,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.331779157051278</v>
+        <v>1.335271957422426</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.065065629631198</v>
@@ -49454,7 +49190,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.336103945245442</v>
+        <v>1.339330253036125</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.015719203298464</v>
@@ -49543,7 +49279,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.328179802958172</v>
+        <v>1.335259149351383</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.065691947967676</v>
@@ -49632,7 +49368,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.323198969764648</v>
+        <v>1.328976247383351</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.009496253759687</v>
@@ -49721,7 +49457,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.318410577163352</v>
+        <v>1.323667126185646</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.044400617533628</v>
@@ -49810,7 +49546,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.310120696097675</v>
+        <v>1.315633592176919</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.076398488416758</v>
@@ -49899,7 +49635,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.309532793010405</v>
+        <v>1.314991844292015</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.061364015511678</v>
@@ -49988,7 +49724,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.292273332590463</v>
+        <v>1.297136435883912</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.060054319191914</v>
@@ -50077,7 +49813,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.295052118198641</v>
+        <v>1.299188830506545</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.047700210290571</v>
@@ -50166,7 +49902,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.285218919428532</v>
+        <v>1.289338754931441</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.067469716652865</v>
@@ -50255,7 +49991,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.286293150492408</v>
+        <v>1.288375503767421</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.118310484372526</v>
@@ -50344,7 +50080,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.28900041390077</v>
+        <v>1.290424593599381</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.103448326948774</v>
@@ -50433,7 +50169,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.290707454422253</v>
+        <v>1.291616616340559</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.113700174692964</v>
@@ -50522,7 +50258,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.307566537388886</v>
+        <v>1.309291273975282</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.090131772097541</v>
@@ -50611,7 +50347,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.323678484167773</v>
+        <v>1.329743326191954</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>1.842786541723342</v>
@@ -50897,7 +50633,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.431272424979052</v>
+        <v>1.410871989570654</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.567763754782312</v>
@@ -50986,7 +50722,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.431028687602429</v>
+        <v>1.407999755630884</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.323615203970448</v>
@@ -51075,7 +50811,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.448564243809123</v>
+        <v>1.422115550647337</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.437503830311063</v>
@@ -51164,7 +50900,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.478327179063985</v>
+        <v>1.445171296499636</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.256484193130161</v>
@@ -51253,7 +50989,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.49985672787595</v>
+        <v>1.462133432305002</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.369029631455665</v>
@@ -51342,7 +51078,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.499940689133917</v>
+        <v>1.461040309839636</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.470930988184699</v>
@@ -51431,7 +51167,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.505743393915511</v>
+        <v>1.464205152541538</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.493936584307679</v>
@@ -51520,7 +51256,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.505055346792217</v>
+        <v>1.460767800470412</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.386609389258563</v>
@@ -51609,7 +51345,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.519871451976821</v>
+        <v>1.47059240393725</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.256410106541473</v>
@@ -51698,7 +51434,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.551306977740504</v>
+        <v>1.492894815644793</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.361262737711264</v>
@@ -51787,7 +51523,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.567556913960655</v>
+        <v>1.507246160188084</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.378026439639725</v>
@@ -51876,7 +51612,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.574929188630453</v>
+        <v>1.512784323805021</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.442290736374774</v>
@@ -51965,7 +51701,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.569935908536082</v>
+        <v>1.509204168469697</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.389324339880043</v>
@@ -52054,7 +51790,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.572669809184437</v>
+        <v>1.52844664278568</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.460530254557781</v>
@@ -52143,7 +51879,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.580006180633881</v>
+        <v>1.536912806071662</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.323375203608903</v>
@@ -52232,7 +51968,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.58844182212841</v>
+        <v>1.540526343914775</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.336431000567533</v>
@@ -52321,7 +52057,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.621244234605125</v>
+        <v>1.566032173801074</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.957971392106403</v>
@@ -52410,7 +52146,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.615342557398542</v>
+        <v>1.559842856749391</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.123920678036741</v>
@@ -52499,7 +52235,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.611055905830127</v>
+        <v>1.561024037577017</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.84663238908173</v>
@@ -52588,7 +52324,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.606106226881249</v>
+        <v>1.554129459572542</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.068508286314014</v>
@@ -52677,7 +52413,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.605924809837763</v>
+        <v>1.550641269381215</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.284727859669847</v>
@@ -52766,7 +52502,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.590527001563779</v>
+        <v>1.535095508282275</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.092646940852719</v>
@@ -52855,7 +52591,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.589746479384584</v>
+        <v>1.539465375406062</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.979638910610106</v>
@@ -52944,7 +52680,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.588806301865917</v>
+        <v>1.537450142972917</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.210944240601023</v>
@@ -53033,7 +52769,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.57372011853036</v>
+        <v>1.531679587646354</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.04493334031614</v>
@@ -53122,7 +52858,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.577760591008611</v>
+        <v>1.536079821284917</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.946286113037686</v>
@@ -53211,7 +52947,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.575852488593277</v>
+        <v>1.528171811650682</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.340944359171471</v>
@@ -53300,7 +53036,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.567211634738502</v>
+        <v>1.519725606066861</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.033613249355098</v>
@@ -53389,7 +53125,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.558192625935085</v>
+        <v>1.50316089682065</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.878172498717515</v>
@@ -53478,7 +53214,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.517609262196506</v>
+        <v>1.466005774786626</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.676715423488985</v>
@@ -53567,7 +53303,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.530113864413643</v>
+        <v>1.479779376577935</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.624415397076214</v>
@@ -53656,7 +53392,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.505478870057925</v>
+        <v>1.456294870592497</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.649695692569799</v>
@@ -53745,7 +53481,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.511730418050886</v>
+        <v>1.459689878444794</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.755842395398433</v>
@@ -53834,7 +53570,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.487208733719059</v>
+        <v>1.43440836212194</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.553710211856116</v>
@@ -53923,7 +53659,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.477346158817648</v>
+        <v>1.426421886685382</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.680385978673812</v>
@@ -54012,7 +53748,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.483177615849608</v>
+        <v>1.438944824717022</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.356821378669129</v>
@@ -54101,7 +53837,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.494615944073938</v>
+        <v>1.450947047897674</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.642740469637606</v>
@@ -54190,7 +53926,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.498098504262124</v>
+        <v>1.451141310364465</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.669956222591373</v>
@@ -54279,7 +54015,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.501803170204646</v>
+        <v>1.453281572661356</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.662930288435192</v>
@@ -54368,7 +54104,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.519983876815766</v>
+        <v>1.467362562633347</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.648054155880408</v>
@@ -54457,7 +54193,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.523226222000171</v>
+        <v>1.475036899676899</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.487340700792326</v>
@@ -54546,7 +54282,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.538631211132984</v>
+        <v>1.498594623710187</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.576164818943476</v>
@@ -54635,7 +54371,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.549891943223302</v>
+        <v>1.513693036693368</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.747480425985454</v>
@@ -54724,7 +54460,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.55726997702804</v>
+        <v>1.526687408492315</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.564965063791712</v>
@@ -54813,7 +54549,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.589130042715013</v>
+        <v>1.55946450873397</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.673120314391149</v>
@@ -54902,7 +54638,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.58471540953641</v>
+        <v>1.558129061712961</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.607119915558762</v>
@@ -54991,7 +54727,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.612310602232806</v>
+        <v>1.581822058786716</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.767427662750667</v>
@@ -55080,7 +54816,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.626424916548607</v>
+        <v>1.594511884535231</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.857891717443023</v>
@@ -55169,7 +54905,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.629127099275417</v>
+        <v>1.605362056092209</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.723115209438739</v>
@@ -55258,7 +54994,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.623942233227743</v>
+        <v>1.598673475106627</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.748173497104184</v>
@@ -55347,7 +55083,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.625651130624355</v>
+        <v>1.59389926190055</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.865393320130362</v>
@@ -55436,7 +55172,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.621384438755376</v>
+        <v>1.587307362122579</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.845320454406606</v>
@@ -55525,7 +55261,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.625126088181031</v>
+        <v>1.594787667274339</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.890929747258573</v>
@@ -55614,7 +55350,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.599625569283422</v>
+        <v>1.579771317610454</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.811116792714818</v>
@@ -55703,7 +55439,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.596637048536715</v>
+        <v>1.572811953353331</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.816184334114147</v>
@@ -55792,7 +55528,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.589778962166184</v>
+        <v>1.564184760128629</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.630714250087971</v>
@@ -55881,7 +55617,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.573441454495321</v>
+        <v>1.548955584003646</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.759145917295275</v>
@@ -55970,7 +55706,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.575045264993037</v>
+        <v>1.54829699215505</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.824559398736895</v>
@@ -56059,7 +55795,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.593917814246423</v>
+        <v>1.562509000144229</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.912535703380769</v>
@@ -56148,7 +55884,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.599368050031479</v>
+        <v>1.562733987081292</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.966170557424567</v>
@@ -56237,7 +55973,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.60958739492025</v>
+        <v>1.569828685938796</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.743168968983422</v>
@@ -56326,7 +56062,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.583754021892007</v>
+        <v>1.549439023579156</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.982136903789793</v>
@@ -56415,7 +56151,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.572137588886042</v>
+        <v>1.537761606732686</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.98947416234622</v>
@@ -56504,7 +56240,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.590692708298165</v>
+        <v>1.553155311658168</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.88385586695342</v>
@@ -56593,7 +56329,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.618605903750756</v>
+        <v>1.582795091814183</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.816635592751417</v>
@@ -56682,7 +56418,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.6056981258076</v>
+        <v>1.573388128237007</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.097877447428103</v>
@@ -56771,7 +56507,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.613481678600837</v>
+        <v>1.57342836943218</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.152565307655824</v>
@@ -56860,7 +56596,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.6291408700184</v>
+        <v>1.582568665126395</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.679000976778798</v>
@@ -56949,7 +56685,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.644628008470593</v>
+        <v>1.593851351583963</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.121688192921189</v>
@@ -57038,7 +56774,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.639633795210329</v>
+        <v>1.592333401409651</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.090293491956696</v>
@@ -57127,7 +56863,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.630586100102222</v>
+        <v>1.584328966079647</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.087475388219439</v>
@@ -57216,7 +56952,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.633180332537194</v>
+        <v>1.576644465423649</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.616695790866503</v>
@@ -57305,7 +57041,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.595382643355605</v>
+        <v>1.553311973205282</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.736521855998649</v>
@@ -57394,7 +57130,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.574117014208047</v>
+        <v>1.531287637502292</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.839438236265762</v>
@@ -57483,7 +57219,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.568109397898344</v>
+        <v>1.533486792022695</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.652958486280834</v>
@@ -57572,7 +57308,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.551144663317362</v>
+        <v>1.522511740187981</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.557788871371224</v>
@@ -57661,7 +57397,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.575474822448963</v>
+        <v>1.550794628535529</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.780467404610255</v>
@@ -57750,7 +57486,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.589367328217522</v>
+        <v>1.566567033851601</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.83949420091321</v>
@@ -57839,7 +57575,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.58211445135752</v>
+        <v>1.561610026298114</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.740548736698257</v>
@@ -57928,7 +57664,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.581606328189092</v>
+        <v>1.563506209074105</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.793367522712446</v>
@@ -58017,7 +57753,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.581018794840142</v>
+        <v>1.563299525795662</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.673151949070412</v>
@@ -58106,7 +57842,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.567595427041411</v>
+        <v>1.562927809655422</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.676158868635068</v>
@@ -58195,7 +57931,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.533250812865309</v>
+        <v>1.533665828182851</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.82301916286112</v>
@@ -58284,7 +58020,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.517914783075772</v>
+        <v>1.518016626097679</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.701946478797089</v>
@@ -58373,7 +58109,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.504533297172593</v>
+        <v>1.510071595420976</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.742853708336638</v>
@@ -58462,7 +58198,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.499486371873147</v>
+        <v>1.505872829924376</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.761975178630405</v>
@@ -58551,7 +58287,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.518321312601047</v>
+        <v>1.521324653077055</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.406252823447038</v>
